--- a/log/My_Flying_Logbook.xlsx
+++ b/log/My_Flying_Logbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/Logbook in Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5527F966-8BA1-2A4E-BEDA-E042444F090B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B3BD32-999B-0848-AC9C-1BB51764C5A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="49">
   <si>
     <t>Month</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>Pre-solo Check</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>R. Brown</t>
+  </si>
+  <si>
+    <t>Stamped</t>
   </si>
 </sst>
 </file>
@@ -328,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,6 +414,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,27 +449,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,9 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0954CD-8BCF-B44D-B508-FF8A17311B21}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -753,7 +766,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -775,98 +788,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="31" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="29" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="29" t="s">
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="29"/>
+      <c r="AB1" s="27"/>
     </row>
     <row r="2" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="29" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29" t="s">
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29" t="s">
+      <c r="R2" s="27"/>
+      <c r="S2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29" t="s">
+      <c r="T2" s="27"/>
+      <c r="U2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29" t="s">
+      <c r="V2" s="27"/>
+      <c r="W2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29" t="s">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29" t="s">
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="27" t="s">
         <v>19</v>
       </c>
     </row>
@@ -883,8 +896,8 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
@@ -894,9 +907,9 @@
       <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
       <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
@@ -939,8 +952,8 @@
       <c r="Z3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
     </row>
     <row r="4" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1570,7 +1583,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
     </row>
-    <row r="17" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11">
         <v>14</v>
@@ -1618,7 +1631,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
     </row>
-    <row r="18" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="14">
         <v>20</v>
@@ -1666,7 +1679,7 @@
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
     </row>
-    <row r="19" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="14">
         <v>20</v>
@@ -1714,7 +1727,7 @@
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
     </row>
-    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="17">
         <v>28</v>
@@ -1762,7 +1775,7 @@
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
     </row>
-    <row r="21" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="24">
         <v>29</v>
@@ -1809,9 +1822,118 @@
       <c r="Z21" s="23"/>
       <c r="AA21" s="23"/>
       <c r="AB21" s="23"/>
+      <c r="AD21" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="25">
+        <v>10</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+    </row>
+    <row r="23" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25">
+        <v>10</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26">
+        <v>1</v>
+      </c>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:I2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
@@ -1826,14 +1948,6 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G1:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/log/My_Flying_Logbook.xlsx
+++ b/log/My_Flying_Logbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B3BD32-999B-0848-AC9C-1BB51764C5A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606A3CC9-CEEE-9A43-AFE4-4D7D5ED7A948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="54">
   <si>
     <t>Month</t>
   </si>
@@ -198,6 +198,21 @@
   </si>
   <si>
     <t>Stamped</t>
+  </si>
+  <si>
+    <t>Circuits Check</t>
+  </si>
+  <si>
+    <t>Page 1</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>TOTALS THIS PAGE</t>
+  </si>
+  <si>
+    <t>TOTALS TO DATE</t>
   </si>
 </sst>
 </file>
@@ -337,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,22 +435,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -449,6 +449,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,9 +787,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -784,106 +805,117 @@
     <col min="10" max="12" width="7.42578125" style="7" customWidth="1"/>
     <col min="13" max="26" width="5.7109375" style="8" customWidth="1"/>
     <col min="27" max="28" width="9.7109375" style="8" customWidth="1"/>
-    <col min="29" max="16384" width="12.42578125" style="7"/>
+    <col min="29" max="29" width="12.42578125" style="7"/>
+    <col min="30" max="32" width="17.7109375" style="7" customWidth="1"/>
+    <col min="33" max="16384" width="12.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="29" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="27" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27" t="s">
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="27" t="s">
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="27"/>
-    </row>
-    <row r="2" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="27" t="s">
+      <c r="AB1" s="33"/>
+      <c r="AD1" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27" t="s">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27" t="s">
+      <c r="T2" s="33"/>
+      <c r="U2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27" t="s">
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AB2" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -896,8 +928,8 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
@@ -907,9 +939,9 @@
       <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
       <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
@@ -952,10 +984,10 @@
       <c r="Z3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-    </row>
-    <row r="4" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+    </row>
+    <row r="4" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1005,7 +1037,7 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
     </row>
-    <row r="5" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6">
         <v>29</v>
@@ -1053,7 +1085,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6">
         <v>30</v>
@@ -1101,7 +1133,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>30</v>
@@ -1149,7 +1181,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>31</v>
@@ -1197,7 +1229,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -1247,7 +1279,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6">
         <v>7</v>
@@ -1295,7 +1327,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6">
         <v>8</v>
@@ -1343,7 +1375,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6">
         <v>8</v>
@@ -1391,7 +1423,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>9</v>
@@ -1439,7 +1471,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>9</v>
@@ -1487,7 +1519,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>12</v>
@@ -1535,7 +1567,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="10">
         <v>13</v>
@@ -1583,7 +1615,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
     </row>
-    <row r="17" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11">
         <v>14</v>
@@ -1631,7 +1663,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
     </row>
-    <row r="18" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="14">
         <v>20</v>
@@ -1679,7 +1711,7 @@
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
     </row>
-    <row r="19" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="14">
         <v>20</v>
@@ -1727,7 +1759,7 @@
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
     </row>
-    <row r="20" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="17">
         <v>28</v>
@@ -1775,7 +1807,7 @@
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
     </row>
-    <row r="21" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="24">
         <v>29</v>
@@ -1826,7 +1858,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>46</v>
       </c>
@@ -1876,7 +1908,7 @@
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
     </row>
-    <row r="23" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="25">
         <v>10</v>
@@ -1924,16 +1956,65 @@
       <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
     </row>
+    <row r="24" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28">
+        <v>25</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27">
+        <v>1.4</v>
+      </c>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AD24" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE24" s="27">
+        <v>23.5</v>
+      </c>
+      <c r="AF24" s="28">
+        <v>23.5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G1:I2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
@@ -1948,6 +2029,14 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/log/My_Flying_Logbook.xlsx
+++ b/log/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606A3CC9-CEEE-9A43-AFE4-4D7D5ED7A948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE5D0DF-68AD-5C49-A30D-56AE6E0EC574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
   <si>
     <t>Month</t>
   </si>
@@ -197,15 +197,9 @@
     <t>R. Brown</t>
   </si>
   <si>
-    <t>Stamped</t>
-  </si>
-  <si>
     <t>Circuits Check</t>
   </si>
   <si>
-    <t>Page 1</t>
-  </si>
-  <si>
     <t>NOTES</t>
   </si>
   <si>
@@ -213,6 +207,21 @@
   </si>
   <si>
     <t>TOTALS TO DATE</t>
+  </si>
+  <si>
+    <t>First Solo Flight</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>First Solo Stamped</t>
+  </si>
+  <si>
+    <t>Time Check Stamped</t>
+  </si>
+  <si>
+    <t>Page 1 END</t>
   </si>
 </sst>
 </file>
@@ -224,7 +233,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,13 +260,25 @@
       <name val="Courier"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -352,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,31 +465,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,10 +835,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF24"/>
+  <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH20" sqref="AH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -806,112 +854,113 @@
     <col min="13" max="26" width="5.7109375" style="8" customWidth="1"/>
     <col min="27" max="28" width="9.7109375" style="8" customWidth="1"/>
     <col min="29" max="29" width="12.42578125" style="7"/>
-    <col min="30" max="32" width="17.7109375" style="7" customWidth="1"/>
+    <col min="30" max="30" width="19.7109375" style="7" customWidth="1"/>
+    <col min="31" max="32" width="17.7109375" style="7" customWidth="1"/>
     <col min="33" max="16384" width="12.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="31" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="35" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="33" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="33" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="33"/>
+      <c r="AB1" s="32"/>
       <c r="AD1" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF1" s="28" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="2" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="33" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AB2" s="32" t="s">
         <v>19</v>
       </c>
     </row>
@@ -928,8 +977,8 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
@@ -939,9 +988,9 @@
       <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
       <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
@@ -984,8 +1033,8 @@
       <c r="Z3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
     </row>
     <row r="4" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1019,21 +1068,21 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="N4" s="43"/>
       <c r="O4" s="5">
         <v>0.8</v>
       </c>
-      <c r="P4" s="5"/>
+      <c r="P4" s="43"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="R4" s="43"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="T4" s="43"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="V4" s="43"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
+      <c r="X4" s="43"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
+      <c r="Z4" s="43"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
     </row>
@@ -1067,21 +1116,21 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="N5" s="44"/>
       <c r="O5" s="1">
         <v>1</v>
       </c>
-      <c r="P5" s="1"/>
+      <c r="P5" s="44"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="R5" s="44"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="T5" s="44"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="V5" s="44"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
+      <c r="X5" s="44"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="Z5" s="44"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
@@ -1115,21 +1164,21 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P6" s="1"/>
+      <c r="P6" s="44"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="R6" s="44"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="T6" s="44"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="V6" s="44"/>
       <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
+      <c r="X6" s="44"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="Z6" s="44"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
@@ -1163,21 +1212,21 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P7" s="1"/>
+      <c r="P7" s="44"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="R7" s="44"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="T7" s="44"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+      <c r="V7" s="44"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
+      <c r="X7" s="44"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="Z7" s="44"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
@@ -1211,21 +1260,21 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="44"/>
       <c r="O8" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P8" s="1"/>
+      <c r="P8" s="44"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="R8" s="44"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="T8" s="44"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="V8" s="44"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
+      <c r="X8" s="44"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="Z8" s="44"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
@@ -1261,21 +1310,21 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="44"/>
       <c r="O9" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P9" s="1"/>
+      <c r="P9" s="44"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="R9" s="44"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="T9" s="44"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="V9" s="44"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
+      <c r="X9" s="44"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
+      <c r="Z9" s="44"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
@@ -1309,21 +1358,21 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="44"/>
       <c r="O10" s="1">
         <v>1.3</v>
       </c>
-      <c r="P10" s="1"/>
+      <c r="P10" s="44"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="R10" s="44"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="T10" s="44"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="V10" s="44"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
+      <c r="X10" s="44"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+      <c r="Z10" s="44"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
@@ -1357,21 +1406,21 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="44"/>
       <c r="O11" s="1">
         <v>1</v>
       </c>
-      <c r="P11" s="1"/>
+      <c r="P11" s="44"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="R11" s="44"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="T11" s="44"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="V11" s="44"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
+      <c r="X11" s="44"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
+      <c r="Z11" s="44"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
@@ -1405,21 +1454,21 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="N12" s="44"/>
       <c r="O12" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P12" s="1"/>
+      <c r="P12" s="44"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="R12" s="44"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="T12" s="44"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="V12" s="44"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
+      <c r="X12" s="44"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="Z12" s="44"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
@@ -1453,21 +1502,21 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="44"/>
       <c r="O13" s="1">
         <v>1.2</v>
       </c>
-      <c r="P13" s="1"/>
+      <c r="P13" s="44"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="44"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="T13" s="44"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="V13" s="44"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
+      <c r="X13" s="44"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="Z13" s="44"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
@@ -1501,21 +1550,21 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="44"/>
       <c r="O14" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P14" s="1"/>
+      <c r="P14" s="44"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="R14" s="44"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="T14" s="44"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="V14" s="44"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
+      <c r="X14" s="44"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+      <c r="Z14" s="44"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
@@ -1549,21 +1598,21 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="44"/>
       <c r="O15" s="1">
         <v>1.3</v>
       </c>
-      <c r="P15" s="1"/>
+      <c r="P15" s="44"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="R15" s="44"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="T15" s="44"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="V15" s="44"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
+      <c r="X15" s="44"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="Z15" s="44"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
@@ -1597,21 +1646,21 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="N16" s="44"/>
       <c r="O16" s="9">
         <v>1.3</v>
       </c>
-      <c r="P16" s="9"/>
+      <c r="P16" s="44"/>
       <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="R16" s="44"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
+      <c r="T16" s="44"/>
       <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
+      <c r="V16" s="44"/>
       <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
+      <c r="X16" s="44"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
+      <c r="Z16" s="44"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
     </row>
@@ -1645,21 +1694,21 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="N17" s="44"/>
       <c r="O17" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P17" s="12"/>
+      <c r="P17" s="44"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
+      <c r="R17" s="44"/>
       <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
+      <c r="T17" s="44"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
+      <c r="V17" s="44"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
+      <c r="X17" s="44"/>
       <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
+      <c r="Z17" s="44"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
     </row>
@@ -1693,21 +1742,21 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="N18" s="44"/>
       <c r="O18" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P18" s="13"/>
+      <c r="P18" s="44"/>
       <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
+      <c r="R18" s="44"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
+      <c r="T18" s="44"/>
       <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
+      <c r="V18" s="44"/>
       <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
+      <c r="X18" s="44"/>
       <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
+      <c r="Z18" s="44"/>
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
     </row>
@@ -1741,21 +1790,21 @@
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="13">
         <v>0.9</v>
       </c>
-      <c r="P19" s="13"/>
+      <c r="P19" s="44"/>
       <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
+      <c r="R19" s="44"/>
       <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
+      <c r="T19" s="44"/>
       <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
+      <c r="V19" s="44"/>
       <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
+      <c r="X19" s="44"/>
       <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
+      <c r="Z19" s="44"/>
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
     </row>
@@ -1789,21 +1838,21 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
+      <c r="N20" s="44"/>
       <c r="O20" s="18">
         <v>1.3</v>
       </c>
-      <c r="P20" s="18"/>
+      <c r="P20" s="44"/>
       <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
+      <c r="R20" s="44"/>
       <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
+      <c r="T20" s="44"/>
       <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
+      <c r="V20" s="44"/>
       <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
+      <c r="X20" s="44"/>
       <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
+      <c r="Z20" s="44"/>
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
     </row>
@@ -1837,25 +1886,25 @@
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
+      <c r="N21" s="44"/>
       <c r="O21" s="23">
         <v>1.3</v>
       </c>
-      <c r="P21" s="23"/>
+      <c r="P21" s="44"/>
       <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="R21" s="44"/>
       <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
+      <c r="T21" s="44"/>
       <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
+      <c r="V21" s="44"/>
       <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
+      <c r="X21" s="44"/>
       <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
+      <c r="Z21" s="44"/>
       <c r="AA21" s="23"/>
       <c r="AB21" s="23"/>
       <c r="AD21" s="25" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -1890,21 +1939,21 @@
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
       <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
+      <c r="N22" s="44"/>
       <c r="O22" s="26">
         <v>0.9</v>
       </c>
-      <c r="P22" s="26"/>
+      <c r="P22" s="44"/>
       <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
+      <c r="R22" s="44"/>
       <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
+      <c r="T22" s="44"/>
       <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
+      <c r="V22" s="44"/>
       <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
+      <c r="X22" s="44"/>
       <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
+      <c r="Z22" s="44"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
     </row>
@@ -1938,73 +1987,73 @@
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
       <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
+      <c r="N23" s="44"/>
       <c r="O23" s="26">
         <v>1</v>
       </c>
-      <c r="P23" s="26"/>
+      <c r="P23" s="44"/>
       <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
+      <c r="R23" s="44"/>
       <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
+      <c r="T23" s="44"/>
       <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
+      <c r="V23" s="44"/>
       <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
+      <c r="X23" s="44"/>
       <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
+      <c r="Z23" s="44"/>
       <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
     </row>
-    <row r="24" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28">
-        <v>25</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="28" t="s">
+    <row r="24" spans="1:32" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30">
+        <v>25</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27">
+      <c r="F24" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="31">
         <v>1.4</v>
       </c>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
       <c r="AD24" s="28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AE24" s="27">
         <v>23.5</v>
@@ -2013,8 +2062,115 @@
         <v>23.5</v>
       </c>
     </row>
+    <row r="25" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4">
+        <v>31</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+    </row>
+    <row r="26" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46">
+        <v>31</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="R26" s="48"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AD26" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:I2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
@@ -2029,14 +2185,6 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G1:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/log/My_Flying_Logbook.xlsx
+++ b/log/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE5D0DF-68AD-5C49-A30D-56AE6E0EC574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BE8701-4D80-4446-9963-03C006193C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="58">
   <si>
     <t>Month</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Page 1 END</t>
+  </si>
+  <si>
+    <t>June</t>
   </si>
 </sst>
 </file>
@@ -373,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,22 +474,25 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -501,22 +507,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -835,10 +844,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF26"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH20" sqref="AH20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -860,52 +869,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="34" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="32" t="s">
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="32" t="s">
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="32"/>
+      <c r="AB1" s="44"/>
       <c r="AD1" s="28" t="s">
         <v>49</v>
       </c>
@@ -917,50 +926,50 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="32" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32" t="s">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32" t="s">
+      <c r="T2" s="44"/>
+      <c r="U2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32" t="s">
+      <c r="V2" s="44"/>
+      <c r="W2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32" t="s">
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32" t="s">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="32" t="s">
+      <c r="AB2" s="44" t="s">
         <v>19</v>
       </c>
     </row>
@@ -977,8 +986,8 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
@@ -988,9 +997,9 @@
       <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
       <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1042,8 @@
       <c r="Z3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
     </row>
     <row r="4" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1068,21 +1077,21 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="43"/>
+      <c r="N4" s="34"/>
       <c r="O4" s="5">
         <v>0.8</v>
       </c>
-      <c r="P4" s="43"/>
+      <c r="P4" s="34"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="43"/>
+      <c r="R4" s="34"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="43"/>
+      <c r="T4" s="34"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="43"/>
+      <c r="V4" s="34"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="43"/>
+      <c r="X4" s="34"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="43"/>
+      <c r="Z4" s="34"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
     </row>
@@ -1116,21 +1125,21 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="44"/>
+      <c r="N5" s="35"/>
       <c r="O5" s="1">
         <v>1</v>
       </c>
-      <c r="P5" s="44"/>
+      <c r="P5" s="35"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="44"/>
+      <c r="R5" s="35"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="44"/>
+      <c r="T5" s="35"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="44"/>
+      <c r="V5" s="35"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="44"/>
+      <c r="X5" s="35"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="44"/>
+      <c r="Z5" s="35"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
@@ -1164,21 +1173,21 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="44"/>
+      <c r="N6" s="35"/>
       <c r="O6" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P6" s="44"/>
+      <c r="P6" s="35"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="44"/>
+      <c r="R6" s="35"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="44"/>
+      <c r="T6" s="35"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="44"/>
+      <c r="V6" s="35"/>
       <c r="W6" s="1"/>
-      <c r="X6" s="44"/>
+      <c r="X6" s="35"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="44"/>
+      <c r="Z6" s="35"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
@@ -1212,21 +1221,21 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="44"/>
+      <c r="N7" s="35"/>
       <c r="O7" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P7" s="44"/>
+      <c r="P7" s="35"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="44"/>
+      <c r="R7" s="35"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="44"/>
+      <c r="T7" s="35"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="44"/>
+      <c r="V7" s="35"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="44"/>
+      <c r="X7" s="35"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="44"/>
+      <c r="Z7" s="35"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
@@ -1260,21 +1269,21 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="44"/>
+      <c r="N8" s="35"/>
       <c r="O8" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P8" s="44"/>
+      <c r="P8" s="35"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="44"/>
+      <c r="R8" s="35"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="44"/>
+      <c r="T8" s="35"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="44"/>
+      <c r="V8" s="35"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="44"/>
+      <c r="X8" s="35"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="44"/>
+      <c r="Z8" s="35"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
@@ -1310,21 +1319,21 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="44"/>
+      <c r="N9" s="35"/>
       <c r="O9" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P9" s="44"/>
+      <c r="P9" s="35"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="44"/>
+      <c r="R9" s="35"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="44"/>
+      <c r="T9" s="35"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="44"/>
+      <c r="V9" s="35"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="44"/>
+      <c r="X9" s="35"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="44"/>
+      <c r="Z9" s="35"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
@@ -1358,21 +1367,21 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="44"/>
+      <c r="N10" s="35"/>
       <c r="O10" s="1">
         <v>1.3</v>
       </c>
-      <c r="P10" s="44"/>
+      <c r="P10" s="35"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="44"/>
+      <c r="R10" s="35"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="44"/>
+      <c r="T10" s="35"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="44"/>
+      <c r="V10" s="35"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="44"/>
+      <c r="X10" s="35"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="44"/>
+      <c r="Z10" s="35"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
@@ -1406,21 +1415,21 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="44"/>
+      <c r="N11" s="35"/>
       <c r="O11" s="1">
         <v>1</v>
       </c>
-      <c r="P11" s="44"/>
+      <c r="P11" s="35"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="44"/>
+      <c r="R11" s="35"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="44"/>
+      <c r="T11" s="35"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="44"/>
+      <c r="V11" s="35"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="44"/>
+      <c r="X11" s="35"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="44"/>
+      <c r="Z11" s="35"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
@@ -1454,21 +1463,21 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="44"/>
+      <c r="N12" s="35"/>
       <c r="O12" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P12" s="44"/>
+      <c r="P12" s="35"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="44"/>
+      <c r="R12" s="35"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="44"/>
+      <c r="T12" s="35"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="44"/>
+      <c r="V12" s="35"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="44"/>
+      <c r="X12" s="35"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="44"/>
+      <c r="Z12" s="35"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
@@ -1502,21 +1511,21 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="44"/>
+      <c r="N13" s="35"/>
       <c r="O13" s="1">
         <v>1.2</v>
       </c>
-      <c r="P13" s="44"/>
+      <c r="P13" s="35"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="44"/>
+      <c r="R13" s="35"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="44"/>
+      <c r="T13" s="35"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="44"/>
+      <c r="V13" s="35"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="44"/>
+      <c r="X13" s="35"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="44"/>
+      <c r="Z13" s="35"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
@@ -1550,21 +1559,21 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="44"/>
+      <c r="N14" s="35"/>
       <c r="O14" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P14" s="44"/>
+      <c r="P14" s="35"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="44"/>
+      <c r="R14" s="35"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="44"/>
+      <c r="T14" s="35"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="44"/>
+      <c r="V14" s="35"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="44"/>
+      <c r="X14" s="35"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="44"/>
+      <c r="Z14" s="35"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
@@ -1598,21 +1607,21 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="44"/>
+      <c r="N15" s="35"/>
       <c r="O15" s="1">
         <v>1.3</v>
       </c>
-      <c r="P15" s="44"/>
+      <c r="P15" s="35"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="44"/>
+      <c r="R15" s="35"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="44"/>
+      <c r="T15" s="35"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="44"/>
+      <c r="V15" s="35"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="44"/>
+      <c r="X15" s="35"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="44"/>
+      <c r="Z15" s="35"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
@@ -1646,21 +1655,21 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="44"/>
+      <c r="N16" s="35"/>
       <c r="O16" s="9">
         <v>1.3</v>
       </c>
-      <c r="P16" s="44"/>
+      <c r="P16" s="35"/>
       <c r="Q16" s="9"/>
-      <c r="R16" s="44"/>
+      <c r="R16" s="35"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="44"/>
+      <c r="T16" s="35"/>
       <c r="U16" s="9"/>
-      <c r="V16" s="44"/>
+      <c r="V16" s="35"/>
       <c r="W16" s="9"/>
-      <c r="X16" s="44"/>
+      <c r="X16" s="35"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="44"/>
+      <c r="Z16" s="35"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
     </row>
@@ -1694,21 +1703,21 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="44"/>
+      <c r="N17" s="35"/>
       <c r="O17" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P17" s="44"/>
+      <c r="P17" s="35"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="44"/>
+      <c r="R17" s="35"/>
       <c r="S17" s="12"/>
-      <c r="T17" s="44"/>
+      <c r="T17" s="35"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="44"/>
+      <c r="V17" s="35"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="44"/>
+      <c r="X17" s="35"/>
       <c r="Y17" s="12"/>
-      <c r="Z17" s="44"/>
+      <c r="Z17" s="35"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
     </row>
@@ -1742,21 +1751,21 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="44"/>
+      <c r="N18" s="35"/>
       <c r="O18" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P18" s="44"/>
+      <c r="P18" s="35"/>
       <c r="Q18" s="13"/>
-      <c r="R18" s="44"/>
+      <c r="R18" s="35"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="44"/>
+      <c r="T18" s="35"/>
       <c r="U18" s="13"/>
-      <c r="V18" s="44"/>
+      <c r="V18" s="35"/>
       <c r="W18" s="13"/>
-      <c r="X18" s="44"/>
+      <c r="X18" s="35"/>
       <c r="Y18" s="13"/>
-      <c r="Z18" s="44"/>
+      <c r="Z18" s="35"/>
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
     </row>
@@ -1790,21 +1799,21 @@
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="13"/>
-      <c r="N19" s="44"/>
+      <c r="N19" s="35"/>
       <c r="O19" s="13">
         <v>0.9</v>
       </c>
-      <c r="P19" s="44"/>
+      <c r="P19" s="35"/>
       <c r="Q19" s="13"/>
-      <c r="R19" s="44"/>
+      <c r="R19" s="35"/>
       <c r="S19" s="13"/>
-      <c r="T19" s="44"/>
+      <c r="T19" s="35"/>
       <c r="U19" s="13"/>
-      <c r="V19" s="44"/>
+      <c r="V19" s="35"/>
       <c r="W19" s="13"/>
-      <c r="X19" s="44"/>
+      <c r="X19" s="35"/>
       <c r="Y19" s="13"/>
-      <c r="Z19" s="44"/>
+      <c r="Z19" s="35"/>
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
     </row>
@@ -1838,21 +1847,21 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="18"/>
-      <c r="N20" s="44"/>
+      <c r="N20" s="35"/>
       <c r="O20" s="18">
         <v>1.3</v>
       </c>
-      <c r="P20" s="44"/>
+      <c r="P20" s="35"/>
       <c r="Q20" s="18"/>
-      <c r="R20" s="44"/>
+      <c r="R20" s="35"/>
       <c r="S20" s="18"/>
-      <c r="T20" s="44"/>
+      <c r="T20" s="35"/>
       <c r="U20" s="18"/>
-      <c r="V20" s="44"/>
+      <c r="V20" s="35"/>
       <c r="W20" s="18"/>
-      <c r="X20" s="44"/>
+      <c r="X20" s="35"/>
       <c r="Y20" s="18"/>
-      <c r="Z20" s="44"/>
+      <c r="Z20" s="35"/>
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
     </row>
@@ -1886,21 +1895,21 @@
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="23"/>
-      <c r="N21" s="44"/>
+      <c r="N21" s="35"/>
       <c r="O21" s="23">
         <v>1.3</v>
       </c>
-      <c r="P21" s="44"/>
+      <c r="P21" s="35"/>
       <c r="Q21" s="23"/>
-      <c r="R21" s="44"/>
+      <c r="R21" s="35"/>
       <c r="S21" s="23"/>
-      <c r="T21" s="44"/>
+      <c r="T21" s="35"/>
       <c r="U21" s="23"/>
-      <c r="V21" s="44"/>
+      <c r="V21" s="35"/>
       <c r="W21" s="23"/>
-      <c r="X21" s="44"/>
+      <c r="X21" s="35"/>
       <c r="Y21" s="23"/>
-      <c r="Z21" s="44"/>
+      <c r="Z21" s="35"/>
       <c r="AA21" s="23"/>
       <c r="AB21" s="23"/>
       <c r="AD21" s="25" t="s">
@@ -1939,21 +1948,21 @@
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
       <c r="M22" s="26"/>
-      <c r="N22" s="44"/>
+      <c r="N22" s="35"/>
       <c r="O22" s="26">
         <v>0.9</v>
       </c>
-      <c r="P22" s="44"/>
+      <c r="P22" s="35"/>
       <c r="Q22" s="26"/>
-      <c r="R22" s="44"/>
+      <c r="R22" s="35"/>
       <c r="S22" s="26"/>
-      <c r="T22" s="44"/>
+      <c r="T22" s="35"/>
       <c r="U22" s="26"/>
-      <c r="V22" s="44"/>
+      <c r="V22" s="35"/>
       <c r="W22" s="26"/>
-      <c r="X22" s="44"/>
+      <c r="X22" s="35"/>
       <c r="Y22" s="26"/>
-      <c r="Z22" s="44"/>
+      <c r="Z22" s="35"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
     </row>
@@ -1987,21 +1996,21 @@
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
       <c r="M23" s="26"/>
-      <c r="N23" s="44"/>
+      <c r="N23" s="35"/>
       <c r="O23" s="26">
         <v>1</v>
       </c>
-      <c r="P23" s="44"/>
+      <c r="P23" s="35"/>
       <c r="Q23" s="26"/>
-      <c r="R23" s="44"/>
+      <c r="R23" s="35"/>
       <c r="S23" s="26"/>
-      <c r="T23" s="44"/>
+      <c r="T23" s="35"/>
       <c r="U23" s="26"/>
-      <c r="V23" s="44"/>
+      <c r="V23" s="35"/>
       <c r="W23" s="26"/>
-      <c r="X23" s="44"/>
+      <c r="X23" s="35"/>
       <c r="Y23" s="26"/>
-      <c r="Z23" s="44"/>
+      <c r="Z23" s="35"/>
       <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
     </row>
@@ -2035,21 +2044,21 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
       <c r="M24" s="31"/>
-      <c r="N24" s="45"/>
+      <c r="N24" s="36"/>
       <c r="O24" s="31">
         <v>1.4</v>
       </c>
-      <c r="P24" s="45"/>
+      <c r="P24" s="36"/>
       <c r="Q24" s="31"/>
-      <c r="R24" s="45"/>
+      <c r="R24" s="36"/>
       <c r="S24" s="31"/>
-      <c r="T24" s="45"/>
+      <c r="T24" s="36"/>
       <c r="U24" s="31"/>
-      <c r="V24" s="45"/>
+      <c r="V24" s="36"/>
       <c r="W24" s="31"/>
-      <c r="X24" s="45"/>
+      <c r="X24" s="36"/>
       <c r="Y24" s="31"/>
-      <c r="Z24" s="45"/>
+      <c r="Z24" s="36"/>
       <c r="AA24" s="31"/>
       <c r="AB24" s="31"/>
       <c r="AD24" s="28" t="s">
@@ -2092,85 +2101,127 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="43"/>
+      <c r="N25" s="34"/>
       <c r="O25" s="5">
         <v>0.5</v>
       </c>
-      <c r="P25" s="43"/>
+      <c r="P25" s="34"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="43"/>
+      <c r="R25" s="34"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="43"/>
+      <c r="T25" s="34"/>
       <c r="U25" s="5"/>
-      <c r="V25" s="43"/>
+      <c r="V25" s="34"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="43"/>
+      <c r="X25" s="34"/>
       <c r="Y25" s="5"/>
-      <c r="Z25" s="43"/>
+      <c r="Z25" s="34"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
     </row>
     <row r="26" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37">
         <v>31</v>
       </c>
-      <c r="C26" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="46" t="s">
+      <c r="C26" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="47">
+      <c r="H26" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="38">
         <v>0.2</v>
       </c>
-      <c r="R26" s="48"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="47"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
       <c r="AD26" s="29" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="27" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="33">
+        <v>2</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G1:I2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
@@ -2185,6 +2236,14 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/log/My_Flying_Logbook.xlsx
+++ b/log/My_Flying_Logbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BE8701-4D80-4446-9963-03C006193C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBA8C50-F26C-C046-8BDB-6FCF6F3B4E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="61">
   <si>
     <t>Month</t>
   </si>
@@ -225,6 +225,15 @@
   </si>
   <si>
     <t>June</t>
+  </si>
+  <si>
+    <t>Second Solo Flight</t>
+  </si>
+  <si>
+    <t>Pre-first-solo Check</t>
+  </si>
+  <si>
+    <t>Pre-second-solo Check</t>
   </si>
 </sst>
 </file>
@@ -376,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -498,6 +507,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,27 +542,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,10 +859,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -869,52 +884,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="46" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="44" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="44" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="44"/>
+      <c r="AB1" s="42"/>
       <c r="AD1" s="28" t="s">
         <v>49</v>
       </c>
@@ -926,50 +941,50 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="44" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44" t="s">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44" t="s">
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44" t="s">
+      <c r="R2" s="42"/>
+      <c r="S2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44" t="s">
+      <c r="T2" s="42"/>
+      <c r="U2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44" t="s">
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44" t="s">
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AB2" s="42" t="s">
         <v>19</v>
       </c>
     </row>
@@ -986,8 +1001,8 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
@@ -997,9 +1012,9 @@
       <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1042,8 +1057,8 @@
       <c r="Z3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
     </row>
     <row r="4" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -2089,7 +2104,7 @@
         <v>25</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>29</v>
@@ -2220,8 +2235,112 @@
       <c r="AA27" s="32"/>
       <c r="AB27" s="32"/>
     </row>
+    <row r="28" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4">
+        <v>22</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+    </row>
+    <row r="29" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40">
+        <v>22</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="R29" s="35"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="41"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:I2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
@@ -2236,14 +2355,6 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G1:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/log/My_Flying_Logbook.xlsx
+++ b/log/My_Flying_Logbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A9C9AD-3220-3D4D-99BC-328BBF75F76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EC3377-A5F6-2341-91AB-5D43D1EB70B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="68">
   <si>
     <t>Month</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>TOTAL AERONAUTICAL EXPERIENCE</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Y.Chen</t>
+  </si>
+  <si>
+    <t>Crosswind Circuits</t>
   </si>
 </sst>
 </file>
@@ -590,6 +599,27 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -611,26 +641,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,15 +681,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -992,12 +1001,12 @@
   <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
@@ -1010,98 +1019,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="26" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="33" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33" t="s">
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="33" t="s">
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="33"/>
+      <c r="AB1" s="29"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="33" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33" t="s">
+      <c r="R2" s="29"/>
+      <c r="S2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33" t="s">
+      <c r="T2" s="29"/>
+      <c r="U2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="V2" s="29"/>
+      <c r="W2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33" t="s">
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AB2" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1118,8 +1127,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -1129,9 +1138,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -1174,8 +1183,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2192,22 +2201,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="24">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -2286,22 +2295,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
@@ -2323,22 +2332,22 @@
       <c r="AB26" s="25"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -2418,12 +2427,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -2437,15 +2449,12 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2463,7 +2472,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
@@ -2476,98 +2485,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="26" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="35" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="35" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="35" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="36"/>
+      <c r="AB1" s="32"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="35" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="51" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="51" t="s">
+      <c r="AB2" s="40" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2584,8 +2593,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -2595,9 +2604,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -2640,8 +2649,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2973,6 +2982,1164 @@
       <c r="Q10" s="15">
         <v>1.1000000000000001</v>
       </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="17">
+        <v>4</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="15">
+        <v>1</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+    </row>
+    <row r="24" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="24">
+        <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="24" t="str">
+        <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
+        <v/>
+      </c>
+      <c r="K25" s="24" t="str">
+        <f t="shared" ref="K25:L25" si="0">IF(SUM(K4:K24)=0,"",SUM(K4:K24))</f>
+        <v/>
+      </c>
+      <c r="L25" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M25" s="24" t="str">
+        <f>IF(SUM(M4:M24)=0,"",SUM(M4:M24))</f>
+        <v/>
+      </c>
+      <c r="N25" s="10" t="str">
+        <f>IF(SUM(N4:N24)=0,"",SUM(N4:N24))</f>
+        <v/>
+      </c>
+      <c r="O25" s="24">
+        <f>IF(SUM(O4:O24)=0,"",SUM(O4:O24))</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P25" s="10" t="str">
+        <f>IF(SUM(P4:P24)=0,"",SUM(P4:P24))</f>
+        <v/>
+      </c>
+      <c r="Q25" s="24">
+        <f>IF(SUM(Q4:Q24)=0,"",SUM(Q4:Q24))</f>
+        <v>1.6</v>
+      </c>
+      <c r="R25" s="10" t="str">
+        <f t="shared" ref="R25:AB25" si="1">IF(SUM(R4:R24)=0,"",SUM(R4:R24))</f>
+        <v/>
+      </c>
+      <c r="S25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="25">
+        <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
+        <v>29.199999999999996</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="25" t="str">
+        <f>'Page 01'!J27</f>
+        <v/>
+      </c>
+      <c r="K26" s="25" t="str">
+        <f>'Page 01'!K27</f>
+        <v/>
+      </c>
+      <c r="L26" s="25" t="str">
+        <f>'Page 01'!L27</f>
+        <v/>
+      </c>
+      <c r="M26" s="25" t="str">
+        <f>'Page 01'!M27</f>
+        <v/>
+      </c>
+      <c r="N26" s="10" t="str">
+        <f>'Page 01'!N27</f>
+        <v/>
+      </c>
+      <c r="O26" s="25">
+        <f>'Page 01'!O27</f>
+        <v>23.499999999999996</v>
+      </c>
+      <c r="P26" s="10" t="str">
+        <f>'Page 01'!P27</f>
+        <v/>
+      </c>
+      <c r="Q26" s="25" t="str">
+        <f>'Page 01'!Q27</f>
+        <v/>
+      </c>
+      <c r="R26" s="10" t="str">
+        <f>'Page 01'!R27</f>
+        <v/>
+      </c>
+      <c r="S26" s="25" t="str">
+        <f>'Page 01'!S27</f>
+        <v/>
+      </c>
+      <c r="T26" s="10" t="str">
+        <f>'Page 01'!T27</f>
+        <v/>
+      </c>
+      <c r="U26" s="25" t="str">
+        <f>'Page 01'!U27</f>
+        <v/>
+      </c>
+      <c r="V26" s="10" t="str">
+        <f>'Page 01'!V27</f>
+        <v/>
+      </c>
+      <c r="W26" s="25" t="str">
+        <f>'Page 01'!W27</f>
+        <v/>
+      </c>
+      <c r="X26" s="10" t="str">
+        <f>'Page 01'!X27</f>
+        <v/>
+      </c>
+      <c r="Y26" s="25" t="str">
+        <f>'Page 01'!Y27</f>
+        <v/>
+      </c>
+      <c r="Z26" s="10" t="str">
+        <f>'Page 01'!Z27</f>
+        <v/>
+      </c>
+      <c r="AA26" s="25" t="str">
+        <f>'Page 01'!AA27</f>
+        <v/>
+      </c>
+      <c r="AB26" s="25" t="str">
+        <f>'Page 01'!AB27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="25">
+        <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
+        <v>29.199999999999996</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="25" t="str">
+        <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
+        <v/>
+      </c>
+      <c r="K27" s="25" t="str">
+        <f t="shared" ref="K27:M27" si="2">IF(SUM(K25:K26)=0,"",SUM(K25:K26))</f>
+        <v/>
+      </c>
+      <c r="L27" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M27" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N27" s="10" t="str">
+        <f>IF(SUM(N25:N26)=0,"",SUM(N25:N26))</f>
+        <v/>
+      </c>
+      <c r="O27" s="25">
+        <f t="shared" ref="O27:Z27" si="3">IF(SUM(O25:O26)=0,"",SUM(O25:O26))</f>
+        <v>27.599999999999994</v>
+      </c>
+      <c r="P27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q27" s="25">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="R27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA27" s="25" t="str">
+        <f>IF(SUM(AA25:AA26)=0,"",SUM(AA25:AA26))</f>
+        <v/>
+      </c>
+      <c r="AB27" s="25" t="str">
+        <f>IF(SUM(AB25:AB26)=0,"",SUM(AB25:AB26))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:I27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4FE858-DBE3-0B42-8095-5BA384189EF5}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:AB27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="26" width="5.7109375" customWidth="1"/>
+    <col min="27" max="28" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="50"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="32"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="10"/>
       <c r="S10" s="15"/>
       <c r="T10" s="10"/>
@@ -3316,64 +4483,64 @@
       <c r="AB21" s="15"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
     </row>
     <row r="24" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
@@ -3406,22 +4573,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="24">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="24" t="str">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
-        <v>4.7</v>
-      </c>
-      <c r="G25" s="37" t="s">
+        <v/>
+      </c>
+      <c r="G25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -3438,23 +4605,23 @@
         <f>IF(SUM(M4:M24)=0,"",SUM(M4:M24))</f>
         <v/>
       </c>
-      <c r="N25" s="10" t="str">
+      <c r="N25" s="9" t="str">
         <f>IF(SUM(N4:N24)=0,"",SUM(N4:N24))</f>
         <v/>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="24" t="str">
         <f>IF(SUM(O4:O24)=0,"",SUM(O4:O24))</f>
-        <v>3.1</v>
-      </c>
-      <c r="P25" s="10" t="str">
+        <v/>
+      </c>
+      <c r="P25" s="9" t="str">
         <f>IF(SUM(P4:P24)=0,"",SUM(P4:P24))</f>
         <v/>
       </c>
-      <c r="Q25" s="24">
+      <c r="Q25" s="24" t="str">
         <f>IF(SUM(Q4:Q24)=0,"",SUM(Q4:Q24))</f>
-        <v>1.6</v>
-      </c>
-      <c r="R25" s="10" t="str">
+        <v/>
+      </c>
+      <c r="R25" s="9" t="str">
         <f t="shared" ref="R25:AB25" si="1">IF(SUM(R4:R24)=0,"",SUM(R4:R24))</f>
         <v/>
       </c>
@@ -3462,7 +4629,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T25" s="10" t="str">
+      <c r="T25" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3470,7 +4637,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V25" s="10" t="str">
+      <c r="V25" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3478,7 +4645,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X25" s="10" t="str">
+      <c r="X25" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3486,7 +4653,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z25" s="10" t="str">
+      <c r="Z25" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3500,116 +4667,116 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
-        <v>28.2</v>
-      </c>
-      <c r="G26" s="39" t="s">
+        <v>29.199999999999996</v>
+      </c>
+      <c r="G26" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="25" t="str">
-        <f>'Page 01'!J27</f>
+        <f>'Page 02'!J27</f>
         <v/>
       </c>
       <c r="K26" s="25" t="str">
-        <f>'Page 01'!K27</f>
+        <f>'Page 02'!K27</f>
         <v/>
       </c>
       <c r="L26" s="25" t="str">
-        <f>'Page 01'!L27</f>
+        <f>'Page 02'!L27</f>
         <v/>
       </c>
       <c r="M26" s="25" t="str">
-        <f>'Page 01'!M27</f>
+        <f>'Page 02'!M27</f>
         <v/>
       </c>
       <c r="N26" s="10" t="str">
-        <f>'Page 01'!N27</f>
+        <f>'Page 02'!N27</f>
         <v/>
       </c>
       <c r="O26" s="25">
-        <f>'Page 01'!O27</f>
-        <v>23.499999999999996</v>
+        <f>'Page 02'!O27</f>
+        <v>27.599999999999994</v>
       </c>
       <c r="P26" s="10" t="str">
-        <f>'Page 01'!P27</f>
-        <v/>
-      </c>
-      <c r="Q26" s="25" t="str">
-        <f>'Page 01'!Q27</f>
-        <v/>
+        <f>'Page 02'!P27</f>
+        <v/>
+      </c>
+      <c r="Q26" s="25">
+        <f>'Page 02'!Q27</f>
+        <v>1.6</v>
       </c>
       <c r="R26" s="10" t="str">
-        <f>'Page 01'!R27</f>
+        <f>'Page 02'!R27</f>
         <v/>
       </c>
       <c r="S26" s="25" t="str">
-        <f>'Page 01'!S27</f>
+        <f>'Page 02'!S27</f>
         <v/>
       </c>
       <c r="T26" s="10" t="str">
-        <f>'Page 01'!T27</f>
+        <f>'Page 02'!T27</f>
         <v/>
       </c>
       <c r="U26" s="25" t="str">
-        <f>'Page 01'!U27</f>
+        <f>'Page 02'!U27</f>
         <v/>
       </c>
       <c r="V26" s="10" t="str">
-        <f>'Page 01'!V27</f>
+        <f>'Page 02'!V27</f>
         <v/>
       </c>
       <c r="W26" s="25" t="str">
-        <f>'Page 01'!W27</f>
+        <f>'Page 02'!W27</f>
         <v/>
       </c>
       <c r="X26" s="10" t="str">
-        <f>'Page 01'!X27</f>
+        <f>'Page 02'!X27</f>
         <v/>
       </c>
       <c r="Y26" s="25" t="str">
-        <f>'Page 01'!Y27</f>
+        <f>'Page 02'!Y27</f>
         <v/>
       </c>
       <c r="Z26" s="10" t="str">
-        <f>'Page 01'!Z27</f>
+        <f>'Page 02'!Z27</f>
         <v/>
       </c>
       <c r="AA26" s="25" t="str">
-        <f>'Page 01'!AA27</f>
+        <f>'Page 02'!AA27</f>
         <v/>
       </c>
       <c r="AB26" s="25" t="str">
-        <f>'Page 01'!AB27</f>
+        <f>'Page 02'!AB27</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
-        <v>28.2</v>
-      </c>
-      <c r="G27" s="39" t="s">
+        <v>29.199999999999996</v>
+      </c>
+      <c r="G27" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -3632,7 +4799,7 @@
       </c>
       <c r="O27" s="25">
         <f t="shared" ref="O27:Z27" si="3">IF(SUM(O25:O26)=0,"",SUM(O25:O26))</f>
-        <v>26.599999999999998</v>
+        <v>27.599999999999994</v>
       </c>
       <c r="P27" s="10" t="str">
         <f t="shared" si="3"/>
@@ -3689,12 +4856,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -3708,1153 +4878,12 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4FE858-DBE3-0B42-8095-5BA384189EF5}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AB27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
-    <col min="8" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="12" width="7.42578125" customWidth="1"/>
-    <col min="13" max="26" width="5.7109375" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="36"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="W3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="X3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-    </row>
-    <row r="24" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="24" t="str">
-        <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
-        <v/>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="24" t="str">
-        <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
-        <v/>
-      </c>
-      <c r="K25" s="24" t="str">
-        <f t="shared" ref="K25:L25" si="0">IF(SUM(K4:K24)=0,"",SUM(K4:K24))</f>
-        <v/>
-      </c>
-      <c r="L25" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M25" s="24" t="str">
-        <f>IF(SUM(M4:M24)=0,"",SUM(M4:M24))</f>
-        <v/>
-      </c>
-      <c r="N25" s="9" t="str">
-        <f>IF(SUM(N4:N24)=0,"",SUM(N4:N24))</f>
-        <v/>
-      </c>
-      <c r="O25" s="24" t="str">
-        <f>IF(SUM(O4:O24)=0,"",SUM(O4:O24))</f>
-        <v/>
-      </c>
-      <c r="P25" s="9" t="str">
-        <f>IF(SUM(P4:P24)=0,"",SUM(P4:P24))</f>
-        <v/>
-      </c>
-      <c r="Q25" s="24" t="str">
-        <f>IF(SUM(Q4:Q24)=0,"",SUM(Q4:Q24))</f>
-        <v/>
-      </c>
-      <c r="R25" s="9" t="str">
-        <f t="shared" ref="R25:AB25" si="1">IF(SUM(R4:R24)=0,"",SUM(R4:R24))</f>
-        <v/>
-      </c>
-      <c r="S25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="25">
-        <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
-        <v>28.2</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="25" t="str">
-        <f>'Page 02'!J27</f>
-        <v/>
-      </c>
-      <c r="K26" s="25" t="str">
-        <f>'Page 02'!K27</f>
-        <v/>
-      </c>
-      <c r="L26" s="25" t="str">
-        <f>'Page 02'!L27</f>
-        <v/>
-      </c>
-      <c r="M26" s="25" t="str">
-        <f>'Page 02'!M27</f>
-        <v/>
-      </c>
-      <c r="N26" s="10" t="str">
-        <f>'Page 02'!N27</f>
-        <v/>
-      </c>
-      <c r="O26" s="25">
-        <f>'Page 02'!O27</f>
-        <v>26.599999999999998</v>
-      </c>
-      <c r="P26" s="10" t="str">
-        <f>'Page 02'!P27</f>
-        <v/>
-      </c>
-      <c r="Q26" s="25">
-        <f>'Page 02'!Q27</f>
-        <v>1.6</v>
-      </c>
-      <c r="R26" s="10" t="str">
-        <f>'Page 02'!R27</f>
-        <v/>
-      </c>
-      <c r="S26" s="25" t="str">
-        <f>'Page 02'!S27</f>
-        <v/>
-      </c>
-      <c r="T26" s="10" t="str">
-        <f>'Page 02'!T27</f>
-        <v/>
-      </c>
-      <c r="U26" s="25" t="str">
-        <f>'Page 02'!U27</f>
-        <v/>
-      </c>
-      <c r="V26" s="10" t="str">
-        <f>'Page 02'!V27</f>
-        <v/>
-      </c>
-      <c r="W26" s="25" t="str">
-        <f>'Page 02'!W27</f>
-        <v/>
-      </c>
-      <c r="X26" s="10" t="str">
-        <f>'Page 02'!X27</f>
-        <v/>
-      </c>
-      <c r="Y26" s="25" t="str">
-        <f>'Page 02'!Y27</f>
-        <v/>
-      </c>
-      <c r="Z26" s="10" t="str">
-        <f>'Page 02'!Z27</f>
-        <v/>
-      </c>
-      <c r="AA26" s="25" t="str">
-        <f>'Page 02'!AA27</f>
-        <v/>
-      </c>
-      <c r="AB26" s="25" t="str">
-        <f>'Page 02'!AB27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="25">
-        <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
-        <v>28.2</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="25" t="str">
-        <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
-        <v/>
-      </c>
-      <c r="K27" s="25" t="str">
-        <f t="shared" ref="K27:M27" si="2">IF(SUM(K25:K26)=0,"",SUM(K25:K26))</f>
-        <v/>
-      </c>
-      <c r="L27" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M27" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N27" s="10" t="str">
-        <f>IF(SUM(N25:N26)=0,"",SUM(N25:N26))</f>
-        <v/>
-      </c>
-      <c r="O27" s="25">
-        <f t="shared" ref="O27:Z27" si="3">IF(SUM(O25:O26)=0,"",SUM(O25:O26))</f>
-        <v>26.599999999999998</v>
-      </c>
-      <c r="P27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q27" s="25">
-        <f t="shared" si="3"/>
-        <v>1.6</v>
-      </c>
-      <c r="R27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="W27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="X27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Y27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Z27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AA27" s="25" t="str">
-        <f>IF(SUM(AA25:AA26)=0,"",SUM(AA25:AA26))</f>
-        <v/>
-      </c>
-      <c r="AB27" s="25" t="str">
-        <f>IF(SUM(AB25:AB26)=0,"",SUM(AB25:AB26))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log/My_Flying_Logbook.xlsx
+++ b/log/My_Flying_Logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EC3377-A5F6-2341-91AB-5D43D1EB70B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E138990-5484-DB42-9A81-D64455A5CDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Theorem Exam Pass Record" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="69">
   <si>
     <t>Month</t>
   </si>
@@ -266,6 +266,9 @@
   <si>
     <t>Crosswind Circuits</t>
   </si>
+  <si>
+    <t>Steep Turn</t>
+  </si>
 </sst>
 </file>
 
@@ -276,7 +279,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,6 +312,12 @@
       <color theme="1"/>
       <name val="Courier"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Century Schoolbook"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -599,6 +608,39 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -608,37 +650,37 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -648,39 +690,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1000,8 +1009,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1019,98 +1028,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="33" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="29" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29" t="s">
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="29" t="s">
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="29"/>
+      <c r="AB1" s="33"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="29" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29" t="s">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29" t="s">
+      <c r="T2" s="33"/>
+      <c r="U2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29" t="s">
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="33" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1127,8 +1136,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -1138,9 +1147,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -1183,8 +1192,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2201,22 +2210,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="24">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -2295,22 +2304,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
@@ -2332,22 +2341,22 @@
       <c r="AB26" s="25"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -2427,15 +2436,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -2449,12 +2455,15 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2466,7 +2475,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -2485,98 +2494,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="33" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="31" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="31" t="s">
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="31" t="s">
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="32"/>
+      <c r="AB1" s="36"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="31" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="31" t="s">
+      <c r="N2" s="36"/>
+      <c r="O2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="31" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="31" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="32"/>
-      <c r="U2" s="31" t="s">
+      <c r="T2" s="36"/>
+      <c r="U2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="32"/>
-      <c r="W2" s="31" t="s">
+      <c r="V2" s="36"/>
+      <c r="W2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="31" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="40" t="s">
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="40" t="s">
+      <c r="AB2" s="51" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2593,8 +2602,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -2604,9 +2613,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -2649,8 +2658,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3030,6 +3039,1163 @@
       <c r="O11" s="15">
         <v>1</v>
       </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17">
+        <v>9</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+    </row>
+    <row r="24" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="24">
+        <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
+        <v>6.7999999999999989</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="24" t="str">
+        <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
+        <v/>
+      </c>
+      <c r="K25" s="24" t="str">
+        <f t="shared" ref="K25:L25" si="0">IF(SUM(K4:K24)=0,"",SUM(K4:K24))</f>
+        <v/>
+      </c>
+      <c r="L25" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M25" s="24" t="str">
+        <f>IF(SUM(M4:M24)=0,"",SUM(M4:M24))</f>
+        <v/>
+      </c>
+      <c r="N25" s="10" t="str">
+        <f>IF(SUM(N4:N24)=0,"",SUM(N4:N24))</f>
+        <v/>
+      </c>
+      <c r="O25" s="24">
+        <f>IF(SUM(O4:O24)=0,"",SUM(O4:O24))</f>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="P25" s="10" t="str">
+        <f>IF(SUM(P4:P24)=0,"",SUM(P4:P24))</f>
+        <v/>
+      </c>
+      <c r="Q25" s="24">
+        <f>IF(SUM(Q4:Q24)=0,"",SUM(Q4:Q24))</f>
+        <v>1.6</v>
+      </c>
+      <c r="R25" s="10" t="str">
+        <f t="shared" ref="R25:AB25" si="1">IF(SUM(R4:R24)=0,"",SUM(R4:R24))</f>
+        <v/>
+      </c>
+      <c r="S25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="25">
+        <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
+        <v>30.299999999999997</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="25" t="str">
+        <f>'Page 01'!J27</f>
+        <v/>
+      </c>
+      <c r="K26" s="25" t="str">
+        <f>'Page 01'!K27</f>
+        <v/>
+      </c>
+      <c r="L26" s="25" t="str">
+        <f>'Page 01'!L27</f>
+        <v/>
+      </c>
+      <c r="M26" s="25" t="str">
+        <f>'Page 01'!M27</f>
+        <v/>
+      </c>
+      <c r="N26" s="10" t="str">
+        <f>'Page 01'!N27</f>
+        <v/>
+      </c>
+      <c r="O26" s="25">
+        <f>'Page 01'!O27</f>
+        <v>23.499999999999996</v>
+      </c>
+      <c r="P26" s="10" t="str">
+        <f>'Page 01'!P27</f>
+        <v/>
+      </c>
+      <c r="Q26" s="25" t="str">
+        <f>'Page 01'!Q27</f>
+        <v/>
+      </c>
+      <c r="R26" s="10" t="str">
+        <f>'Page 01'!R27</f>
+        <v/>
+      </c>
+      <c r="S26" s="25" t="str">
+        <f>'Page 01'!S27</f>
+        <v/>
+      </c>
+      <c r="T26" s="10" t="str">
+        <f>'Page 01'!T27</f>
+        <v/>
+      </c>
+      <c r="U26" s="25" t="str">
+        <f>'Page 01'!U27</f>
+        <v/>
+      </c>
+      <c r="V26" s="10" t="str">
+        <f>'Page 01'!V27</f>
+        <v/>
+      </c>
+      <c r="W26" s="25" t="str">
+        <f>'Page 01'!W27</f>
+        <v/>
+      </c>
+      <c r="X26" s="10" t="str">
+        <f>'Page 01'!X27</f>
+        <v/>
+      </c>
+      <c r="Y26" s="25" t="str">
+        <f>'Page 01'!Y27</f>
+        <v/>
+      </c>
+      <c r="Z26" s="10" t="str">
+        <f>'Page 01'!Z27</f>
+        <v/>
+      </c>
+      <c r="AA26" s="25" t="str">
+        <f>'Page 01'!AA27</f>
+        <v/>
+      </c>
+      <c r="AB26" s="25" t="str">
+        <f>'Page 01'!AB27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="25">
+        <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
+        <v>30.299999999999997</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="25" t="str">
+        <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
+        <v/>
+      </c>
+      <c r="K27" s="25" t="str">
+        <f t="shared" ref="K27:M27" si="2">IF(SUM(K25:K26)=0,"",SUM(K25:K26))</f>
+        <v/>
+      </c>
+      <c r="L27" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M27" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N27" s="10" t="str">
+        <f>IF(SUM(N25:N26)=0,"",SUM(N25:N26))</f>
+        <v/>
+      </c>
+      <c r="O27" s="25">
+        <f t="shared" ref="O27:Z27" si="3">IF(SUM(O25:O26)=0,"",SUM(O25:O26))</f>
+        <v>28.699999999999996</v>
+      </c>
+      <c r="P27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q27" s="25">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="R27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA27" s="25" t="str">
+        <f>IF(SUM(AA25:AA26)=0,"",SUM(AA25:AA26))</f>
+        <v/>
+      </c>
+      <c r="AB27" s="25" t="str">
+        <f>IF(SUM(AB25:AB26)=0,"",SUM(AB25:AB26))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4FE858-DBE3-0B42-8095-5BA384189EF5}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:AB27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="26" width="5.7109375" customWidth="1"/>
+    <col min="27" max="28" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="36"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="36"/>
+      <c r="O2" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="36"/>
+      <c r="S2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="36"/>
+      <c r="U2" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="36"/>
+      <c r="W2" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="15"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="10"/>
@@ -3345,64 +4511,64 @@
       <c r="AB21" s="15"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
     </row>
     <row r="24" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
@@ -3435,22 +4601,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="24">
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="24" t="str">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
-        <v>5.6999999999999993</v>
-      </c>
-      <c r="G25" s="26" t="s">
+        <v/>
+      </c>
+      <c r="G25" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -3467,23 +4633,23 @@
         <f>IF(SUM(M4:M24)=0,"",SUM(M4:M24))</f>
         <v/>
       </c>
-      <c r="N25" s="10" t="str">
+      <c r="N25" s="9" t="str">
         <f>IF(SUM(N4:N24)=0,"",SUM(N4:N24))</f>
         <v/>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="24" t="str">
         <f>IF(SUM(O4:O24)=0,"",SUM(O4:O24))</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P25" s="10" t="str">
+        <v/>
+      </c>
+      <c r="P25" s="9" t="str">
         <f>IF(SUM(P4:P24)=0,"",SUM(P4:P24))</f>
         <v/>
       </c>
-      <c r="Q25" s="24">
+      <c r="Q25" s="24" t="str">
         <f>IF(SUM(Q4:Q24)=0,"",SUM(Q4:Q24))</f>
-        <v>1.6</v>
-      </c>
-      <c r="R25" s="10" t="str">
+        <v/>
+      </c>
+      <c r="R25" s="9" t="str">
         <f t="shared" ref="R25:AB25" si="1">IF(SUM(R4:R24)=0,"",SUM(R4:R24))</f>
         <v/>
       </c>
@@ -3491,7 +4657,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T25" s="10" t="str">
+      <c r="T25" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3499,7 +4665,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V25" s="10" t="str">
+      <c r="V25" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3507,7 +4673,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X25" s="10" t="str">
+      <c r="X25" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3515,7 +4681,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z25" s="10" t="str">
+      <c r="Z25" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3529,116 +4695,116 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
-        <v>29.199999999999996</v>
-      </c>
-      <c r="G26" s="28" t="s">
+        <v>30.299999999999997</v>
+      </c>
+      <c r="G26" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="25" t="str">
-        <f>'Page 01'!J27</f>
+        <f>'Page 02'!J27</f>
         <v/>
       </c>
       <c r="K26" s="25" t="str">
-        <f>'Page 01'!K27</f>
+        <f>'Page 02'!K27</f>
         <v/>
       </c>
       <c r="L26" s="25" t="str">
-        <f>'Page 01'!L27</f>
+        <f>'Page 02'!L27</f>
         <v/>
       </c>
       <c r="M26" s="25" t="str">
-        <f>'Page 01'!M27</f>
+        <f>'Page 02'!M27</f>
         <v/>
       </c>
       <c r="N26" s="10" t="str">
-        <f>'Page 01'!N27</f>
+        <f>'Page 02'!N27</f>
         <v/>
       </c>
       <c r="O26" s="25">
-        <f>'Page 01'!O27</f>
-        <v>23.499999999999996</v>
+        <f>'Page 02'!O27</f>
+        <v>28.699999999999996</v>
       </c>
       <c r="P26" s="10" t="str">
-        <f>'Page 01'!P27</f>
-        <v/>
-      </c>
-      <c r="Q26" s="25" t="str">
-        <f>'Page 01'!Q27</f>
-        <v/>
+        <f>'Page 02'!P27</f>
+        <v/>
+      </c>
+      <c r="Q26" s="25">
+        <f>'Page 02'!Q27</f>
+        <v>1.6</v>
       </c>
       <c r="R26" s="10" t="str">
-        <f>'Page 01'!R27</f>
+        <f>'Page 02'!R27</f>
         <v/>
       </c>
       <c r="S26" s="25" t="str">
-        <f>'Page 01'!S27</f>
+        <f>'Page 02'!S27</f>
         <v/>
       </c>
       <c r="T26" s="10" t="str">
-        <f>'Page 01'!T27</f>
+        <f>'Page 02'!T27</f>
         <v/>
       </c>
       <c r="U26" s="25" t="str">
-        <f>'Page 01'!U27</f>
+        <f>'Page 02'!U27</f>
         <v/>
       </c>
       <c r="V26" s="10" t="str">
-        <f>'Page 01'!V27</f>
+        <f>'Page 02'!V27</f>
         <v/>
       </c>
       <c r="W26" s="25" t="str">
-        <f>'Page 01'!W27</f>
+        <f>'Page 02'!W27</f>
         <v/>
       </c>
       <c r="X26" s="10" t="str">
-        <f>'Page 01'!X27</f>
+        <f>'Page 02'!X27</f>
         <v/>
       </c>
       <c r="Y26" s="25" t="str">
-        <f>'Page 01'!Y27</f>
+        <f>'Page 02'!Y27</f>
         <v/>
       </c>
       <c r="Z26" s="10" t="str">
-        <f>'Page 01'!Z27</f>
+        <f>'Page 02'!Z27</f>
         <v/>
       </c>
       <c r="AA26" s="25" t="str">
-        <f>'Page 01'!AA27</f>
+        <f>'Page 02'!AA27</f>
         <v/>
       </c>
       <c r="AB26" s="25" t="str">
-        <f>'Page 01'!AB27</f>
+        <f>'Page 02'!AB27</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
-        <v>29.199999999999996</v>
-      </c>
-      <c r="G27" s="28" t="s">
+        <v>30.299999999999997</v>
+      </c>
+      <c r="G27" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -3661,7 +4827,7 @@
       </c>
       <c r="O27" s="25">
         <f t="shared" ref="O27:Z27" si="3">IF(SUM(O25:O26)=0,"",SUM(O25:O26))</f>
-        <v>27.599999999999994</v>
+        <v>28.699999999999996</v>
       </c>
       <c r="P27" s="10" t="str">
         <f t="shared" si="3"/>
@@ -3718,15 +4884,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:I27"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -3740,1122 +4903,6 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G27:I27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4FE858-DBE3-0B42-8095-5BA384189EF5}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AB27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
-    <col min="8" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="12" width="7.42578125" customWidth="1"/>
-    <col min="13" max="26" width="5.7109375" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="32"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="32"/>
-      <c r="U2" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="32"/>
-      <c r="W2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="W3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="X3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-    </row>
-    <row r="24" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="24" t="str">
-        <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
-        <v/>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="24" t="str">
-        <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
-        <v/>
-      </c>
-      <c r="K25" s="24" t="str">
-        <f t="shared" ref="K25:L25" si="0">IF(SUM(K4:K24)=0,"",SUM(K4:K24))</f>
-        <v/>
-      </c>
-      <c r="L25" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M25" s="24" t="str">
-        <f>IF(SUM(M4:M24)=0,"",SUM(M4:M24))</f>
-        <v/>
-      </c>
-      <c r="N25" s="9" t="str">
-        <f>IF(SUM(N4:N24)=0,"",SUM(N4:N24))</f>
-        <v/>
-      </c>
-      <c r="O25" s="24" t="str">
-        <f>IF(SUM(O4:O24)=0,"",SUM(O4:O24))</f>
-        <v/>
-      </c>
-      <c r="P25" s="9" t="str">
-        <f>IF(SUM(P4:P24)=0,"",SUM(P4:P24))</f>
-        <v/>
-      </c>
-      <c r="Q25" s="24" t="str">
-        <f>IF(SUM(Q4:Q24)=0,"",SUM(Q4:Q24))</f>
-        <v/>
-      </c>
-      <c r="R25" s="9" t="str">
-        <f t="shared" ref="R25:AB25" si="1">IF(SUM(R4:R24)=0,"",SUM(R4:R24))</f>
-        <v/>
-      </c>
-      <c r="S25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="25">
-        <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
-        <v>29.199999999999996</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="25" t="str">
-        <f>'Page 02'!J27</f>
-        <v/>
-      </c>
-      <c r="K26" s="25" t="str">
-        <f>'Page 02'!K27</f>
-        <v/>
-      </c>
-      <c r="L26" s="25" t="str">
-        <f>'Page 02'!L27</f>
-        <v/>
-      </c>
-      <c r="M26" s="25" t="str">
-        <f>'Page 02'!M27</f>
-        <v/>
-      </c>
-      <c r="N26" s="10" t="str">
-        <f>'Page 02'!N27</f>
-        <v/>
-      </c>
-      <c r="O26" s="25">
-        <f>'Page 02'!O27</f>
-        <v>27.599999999999994</v>
-      </c>
-      <c r="P26" s="10" t="str">
-        <f>'Page 02'!P27</f>
-        <v/>
-      </c>
-      <c r="Q26" s="25">
-        <f>'Page 02'!Q27</f>
-        <v>1.6</v>
-      </c>
-      <c r="R26" s="10" t="str">
-        <f>'Page 02'!R27</f>
-        <v/>
-      </c>
-      <c r="S26" s="25" t="str">
-        <f>'Page 02'!S27</f>
-        <v/>
-      </c>
-      <c r="T26" s="10" t="str">
-        <f>'Page 02'!T27</f>
-        <v/>
-      </c>
-      <c r="U26" s="25" t="str">
-        <f>'Page 02'!U27</f>
-        <v/>
-      </c>
-      <c r="V26" s="10" t="str">
-        <f>'Page 02'!V27</f>
-        <v/>
-      </c>
-      <c r="W26" s="25" t="str">
-        <f>'Page 02'!W27</f>
-        <v/>
-      </c>
-      <c r="X26" s="10" t="str">
-        <f>'Page 02'!X27</f>
-        <v/>
-      </c>
-      <c r="Y26" s="25" t="str">
-        <f>'Page 02'!Y27</f>
-        <v/>
-      </c>
-      <c r="Z26" s="10" t="str">
-        <f>'Page 02'!Z27</f>
-        <v/>
-      </c>
-      <c r="AA26" s="25" t="str">
-        <f>'Page 02'!AA27</f>
-        <v/>
-      </c>
-      <c r="AB26" s="25" t="str">
-        <f>'Page 02'!AB27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="25">
-        <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
-        <v>29.199999999999996</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="25" t="str">
-        <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
-        <v/>
-      </c>
-      <c r="K27" s="25" t="str">
-        <f t="shared" ref="K27:M27" si="2">IF(SUM(K25:K26)=0,"",SUM(K25:K26))</f>
-        <v/>
-      </c>
-      <c r="L27" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M27" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N27" s="10" t="str">
-        <f>IF(SUM(N25:N26)=0,"",SUM(N25:N26))</f>
-        <v/>
-      </c>
-      <c r="O27" s="25">
-        <f t="shared" ref="O27:Z27" si="3">IF(SUM(O25:O26)=0,"",SUM(O25:O26))</f>
-        <v>27.599999999999994</v>
-      </c>
-      <c r="P27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q27" s="25">
-        <f t="shared" si="3"/>
-        <v>1.6</v>
-      </c>
-      <c r="R27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="W27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="X27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Y27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Z27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AA27" s="25" t="str">
-        <f>IF(SUM(AA25:AA26)=0,"",SUM(AA25:AA26))</f>
-        <v/>
-      </c>
-      <c r="AB27" s="25" t="str">
-        <f>IF(SUM(AB25:AB26)=0,"",SUM(AB25:AB26))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:D2"/>
@@ -4865,25 +4912,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log/My_Flying_Logbook.xlsx
+++ b/log/My_Flying_Logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E138990-5484-DB42-9A81-D64455A5CDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D763165-9FEC-FF41-BEE9-05B6F09D031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Theorem Exam Pass Record" sheetId="2" r:id="rId1"/>
@@ -267,7 +267,7 @@
     <t>Crosswind Circuits</t>
   </si>
   <si>
-    <t>Steep Turn</t>
+    <t>Steep Turns</t>
   </si>
 </sst>
 </file>
@@ -608,6 +608,27 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,26 +650,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,15 +690,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,6 +1009,1472 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB27"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="26" width="5.7109375" customWidth="1"/>
+    <col min="27" max="28" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="29"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17">
+        <v>29</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="15">
+        <v>1</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17">
+        <v>30</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17">
+        <v>30</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17">
+        <v>31</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17">
+        <v>7</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17">
+        <v>8</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="15">
+        <v>1</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17">
+        <v>8</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17">
+        <v>9</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17">
+        <v>9</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17">
+        <v>13</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17">
+        <v>20</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17">
+        <v>20</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17">
+        <v>28</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17">
+        <v>29</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="17">
+        <v>10</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19">
+        <v>10</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="20">
+        <v>1</v>
+      </c>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+    </row>
+    <row r="24" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18">
+        <v>25</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="24">
+        <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
+        <v>23.499999999999996</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="24" t="str">
+        <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
+        <v/>
+      </c>
+      <c r="K25" s="24" t="str">
+        <f t="shared" ref="K25:L25" si="0">IF(SUM(K4:K24)=0,"",SUM(K4:K24))</f>
+        <v/>
+      </c>
+      <c r="L25" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M25" s="24" t="str">
+        <f>IF(SUM(M4:M24)=0,"",SUM(M4:M24))</f>
+        <v/>
+      </c>
+      <c r="N25" s="10" t="str">
+        <f>IF(SUM(N4:N24)=0,"",SUM(N4:N24))</f>
+        <v/>
+      </c>
+      <c r="O25" s="24">
+        <f>IF(SUM(O4:O24)=0,"",SUM(O4:O24))</f>
+        <v>23.499999999999996</v>
+      </c>
+      <c r="P25" s="10" t="str">
+        <f>IF(SUM(P4:P24)=0,"",SUM(P4:P24))</f>
+        <v/>
+      </c>
+      <c r="Q25" s="24" t="str">
+        <f>IF(SUM(Q4:Q24)=0,"",SUM(Q4:Q24))</f>
+        <v/>
+      </c>
+      <c r="R25" s="10" t="str">
+        <f t="shared" ref="R25:AB25" si="1">IF(SUM(R4:R24)=0,"",SUM(R4:R24))</f>
+        <v/>
+      </c>
+      <c r="S25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="25">
+        <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
+        <v>23.499999999999996</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="25">
+        <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
+        <v>23.499999999999996</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="25" t="str">
+        <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
+        <v/>
+      </c>
+      <c r="K27" s="25" t="str">
+        <f t="shared" ref="K27:M27" si="2">IF(SUM(K25:K26)=0,"",SUM(K25:K26))</f>
+        <v/>
+      </c>
+      <c r="L27" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M27" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N27" s="10" t="str">
+        <f>IF(SUM(N25:N26)=0,"",SUM(N25:N26))</f>
+        <v/>
+      </c>
+      <c r="O27" s="25">
+        <f t="shared" ref="O27:P27" si="3">IF(SUM(O25:O26)=0,"",SUM(O25:O26))</f>
+        <v>23.499999999999996</v>
+      </c>
+      <c r="P27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q27" s="25" t="str">
+        <f t="shared" ref="Q27:R27" si="4">IF(SUM(Q25:Q26)=0,"",SUM(Q25:Q26))</f>
+        <v/>
+      </c>
+      <c r="R27" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S27" s="25" t="str">
+        <f t="shared" ref="S27:T27" si="5">IF(SUM(S25:S26)=0,"",SUM(S25:S26))</f>
+        <v/>
+      </c>
+      <c r="T27" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U27" s="25" t="str">
+        <f t="shared" ref="U27:V27" si="6">IF(SUM(U25:U26)=0,"",SUM(U25:U26))</f>
+        <v/>
+      </c>
+      <c r="V27" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W27" s="25" t="str">
+        <f t="shared" ref="W27:X27" si="7">IF(SUM(W25:W26)=0,"",SUM(W25:W26))</f>
+        <v/>
+      </c>
+      <c r="X27" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y27" s="25" t="str">
+        <f t="shared" ref="Y27:Z27" si="8">IF(SUM(Y25:Y26)=0,"",SUM(Y25:Y26))</f>
+        <v/>
+      </c>
+      <c r="Z27" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA27" s="25" t="str">
+        <f>IF(SUM(AA25:AA26)=0,"",SUM(AA25:AA26))</f>
+        <v/>
+      </c>
+      <c r="AB27" s="25" t="str">
+        <f>IF(SUM(AB25:AB26)=0,"",SUM(AB25:AB26))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70910BB0-6615-6649-8B7C-4D1BF76EB3FD}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:AB27"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
@@ -1028,98 +2494,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="26" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="33" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="33" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="33"/>
+      <c r="AB1" s="32"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="33" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AB2" s="40" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1136,8 +2602,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -1147,9 +2613,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -1192,1474 +2658,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17">
-        <v>29</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="15">
-        <v>1</v>
-      </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17">
-        <v>30</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17">
-        <v>30</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17">
-        <v>31</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="17">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17">
-        <v>7</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17">
-        <v>8</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="15">
-        <v>1</v>
-      </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17">
-        <v>8</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17">
-        <v>9</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17">
-        <v>9</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17">
-        <v>12</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17">
-        <v>13</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17">
-        <v>14</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17">
-        <v>20</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17">
-        <v>20</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17">
-        <v>28</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17">
-        <v>29</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="17">
-        <v>10</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19">
-        <v>10</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="20">
-        <v>1</v>
-      </c>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-    </row>
-    <row r="24" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18">
-        <v>25</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="16">
-        <v>1.4</v>
-      </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="24">
-        <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
-        <v>23.499999999999996</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="24" t="str">
-        <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
-        <v/>
-      </c>
-      <c r="K25" s="24" t="str">
-        <f t="shared" ref="K25:L25" si="0">IF(SUM(K4:K24)=0,"",SUM(K4:K24))</f>
-        <v/>
-      </c>
-      <c r="L25" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M25" s="24" t="str">
-        <f>IF(SUM(M4:M24)=0,"",SUM(M4:M24))</f>
-        <v/>
-      </c>
-      <c r="N25" s="10" t="str">
-        <f>IF(SUM(N4:N24)=0,"",SUM(N4:N24))</f>
-        <v/>
-      </c>
-      <c r="O25" s="24">
-        <f>IF(SUM(O4:O24)=0,"",SUM(O4:O24))</f>
-        <v>23.499999999999996</v>
-      </c>
-      <c r="P25" s="10" t="str">
-        <f>IF(SUM(P4:P24)=0,"",SUM(P4:P24))</f>
-        <v/>
-      </c>
-      <c r="Q25" s="24" t="str">
-        <f>IF(SUM(Q4:Q24)=0,"",SUM(Q4:Q24))</f>
-        <v/>
-      </c>
-      <c r="R25" s="10" t="str">
-        <f t="shared" ref="R25:AB25" si="1">IF(SUM(R4:R24)=0,"",SUM(R4:R24))</f>
-        <v/>
-      </c>
-      <c r="S25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T25" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V25" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X25" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z25" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="25">
-        <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
-        <v>23.499999999999996</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="25">
-        <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
-        <v>23.499999999999996</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="25" t="str">
-        <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
-        <v/>
-      </c>
-      <c r="K27" s="25" t="str">
-        <f t="shared" ref="K27:M27" si="2">IF(SUM(K25:K26)=0,"",SUM(K25:K26))</f>
-        <v/>
-      </c>
-      <c r="L27" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M27" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N27" s="10" t="str">
-        <f>IF(SUM(N25:N26)=0,"",SUM(N25:N26))</f>
-        <v/>
-      </c>
-      <c r="O27" s="25">
-        <f t="shared" ref="O27:P27" si="3">IF(SUM(O25:O26)=0,"",SUM(O25:O26))</f>
-        <v>23.499999999999996</v>
-      </c>
-      <c r="P27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q27" s="25" t="str">
-        <f t="shared" ref="Q27:R27" si="4">IF(SUM(Q25:Q26)=0,"",SUM(Q25:Q26))</f>
-        <v/>
-      </c>
-      <c r="R27" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S27" s="25" t="str">
-        <f t="shared" ref="S27:T27" si="5">IF(SUM(S25:S26)=0,"",SUM(S25:S26))</f>
-        <v/>
-      </c>
-      <c r="T27" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="U27" s="25" t="str">
-        <f t="shared" ref="U27:V27" si="6">IF(SUM(U25:U26)=0,"",SUM(U25:U26))</f>
-        <v/>
-      </c>
-      <c r="V27" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="W27" s="25" t="str">
-        <f t="shared" ref="W27:X27" si="7">IF(SUM(W25:W26)=0,"",SUM(W25:W26))</f>
-        <v/>
-      </c>
-      <c r="X27" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="Y27" s="25" t="str">
-        <f t="shared" ref="Y27:Z27" si="8">IF(SUM(Y25:Y26)=0,"",SUM(Y25:Y26))</f>
-        <v/>
-      </c>
-      <c r="Z27" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AA27" s="25" t="str">
-        <f>IF(SUM(AA25:AA26)=0,"",SUM(AA25:AA26))</f>
-        <v/>
-      </c>
-      <c r="AB27" s="25" t="str">
-        <f>IF(SUM(AB25:AB26)=0,"",SUM(AB25:AB26))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70910BB0-6615-6649-8B7C-4D1BF76EB3FD}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AB27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
-    <col min="8" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="12" width="7.42578125" customWidth="1"/>
-    <col min="13" max="26" width="5.7109375" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="36"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="W3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="X3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3462,22 +3462,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="24">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -3556,22 +3556,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="25" t="str">
         <f>'Page 01'!J27</f>
         <v/>
@@ -3650,22 +3650,22 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -3745,12 +3745,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -3764,15 +3767,12 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3803,98 +3803,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="26" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="35" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="35" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="35" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="36"/>
+      <c r="AB1" s="32"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="35" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="51" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="51" t="s">
+      <c r="AB2" s="40" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3911,8 +3911,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -3922,9 +3922,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -3967,8 +3967,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -4601,22 +4601,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="24" t="str">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
         <v/>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -4695,22 +4695,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="25" t="str">
         <f>'Page 02'!J27</f>
         <v/>
@@ -4789,22 +4789,22 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -4884,12 +4884,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -4903,15 +4906,12 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log/My_Flying_Logbook.xlsx
+++ b/log/My_Flying_Logbook.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D763165-9FEC-FF41-BEE9-05B6F09D031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932870D2-6D16-3C43-A8DA-63C7F1F8D2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Theorem Exam Pass Record" sheetId="2" r:id="rId1"/>
     <sheet name="Page 01" sheetId="3" r:id="rId2"/>
     <sheet name="Page 02" sheetId="4" r:id="rId3"/>
     <sheet name="Page 03" sheetId="5" r:id="rId4"/>
+    <sheet name="Page 04" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="72">
   <si>
     <t>Month</t>
   </si>
@@ -261,13 +262,22 @@
     <t>December</t>
   </si>
   <si>
-    <t>Y.Chen</t>
-  </si>
-  <si>
     <t>Crosswind Circuits</t>
   </si>
   <si>
     <t>Steep Turns</t>
+  </si>
+  <si>
+    <t>Year 2022</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Y. Chen</t>
+  </si>
+  <si>
+    <t>Forced Landing</t>
   </si>
 </sst>
 </file>
@@ -531,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -608,25 +618,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,14 +645,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,6 +697,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,98 +1044,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="33" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="29" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="29" t="s">
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="29"/>
+      <c r="AB1" s="35"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="29" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29" t="s">
+      <c r="R2" s="35"/>
+      <c r="S2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29" t="s">
+      <c r="T2" s="35"/>
+      <c r="U2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29" t="s">
+      <c r="V2" s="35"/>
+      <c r="W2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29" t="s">
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29" t="s">
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="35" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1136,8 +1152,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -1147,9 +1163,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -1192,8 +1208,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2210,22 +2226,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="24">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -2304,22 +2320,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
@@ -2341,22 +2357,22 @@
       <c r="AB26" s="25"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -2436,15 +2452,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -2458,12 +2471,15 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2475,7 +2491,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -2494,98 +2510,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="33" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="31" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="31" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="31" t="s">
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="32"/>
+      <c r="AB1" s="38"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="31" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="31" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="31" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="32"/>
-      <c r="U2" s="31" t="s">
+      <c r="T2" s="38"/>
+      <c r="U2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="32"/>
-      <c r="W2" s="31" t="s">
+      <c r="V2" s="38"/>
+      <c r="W2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="31" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="40" t="s">
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="40" t="s">
+      <c r="AB2" s="53" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2602,8 +2618,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -2613,9 +2629,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -2658,8 +2674,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3017,13 +3033,13 @@
         <v>23</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>29</v>
@@ -3065,13 +3081,13 @@
         <v>23</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>29</v>
@@ -3462,22 +3478,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="24">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -3556,22 +3572,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="25" t="str">
         <f>'Page 01'!J27</f>
         <v/>
@@ -3650,22 +3666,22 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -3745,15 +3761,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:I27"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -3767,12 +3780,15 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3784,7 +3800,1164 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="26" width="5.7109375" customWidth="1"/>
+    <col min="27" max="28" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="49"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="38"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="38"/>
+      <c r="O2" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="38"/>
+      <c r="S2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="38"/>
+      <c r="U2" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="38"/>
+      <c r="W2" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+    </row>
+    <row r="24" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="24">
+        <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="24" t="str">
+        <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
+        <v/>
+      </c>
+      <c r="K25" s="24" t="str">
+        <f t="shared" ref="K25:L25" si="0">IF(SUM(K4:K24)=0,"",SUM(K4:K24))</f>
+        <v/>
+      </c>
+      <c r="L25" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M25" s="24" t="str">
+        <f>IF(SUM(M4:M24)=0,"",SUM(M4:M24))</f>
+        <v/>
+      </c>
+      <c r="N25" s="9" t="str">
+        <f>IF(SUM(N4:N24)=0,"",SUM(N4:N24))</f>
+        <v/>
+      </c>
+      <c r="O25" s="24">
+        <f>IF(SUM(O4:O24)=0,"",SUM(O4:O24))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P25" s="9" t="str">
+        <f>IF(SUM(P4:P24)=0,"",SUM(P4:P24))</f>
+        <v/>
+      </c>
+      <c r="Q25" s="24" t="str">
+        <f>IF(SUM(Q4:Q24)=0,"",SUM(Q4:Q24))</f>
+        <v/>
+      </c>
+      <c r="R25" s="9" t="str">
+        <f t="shared" ref="R25:AB25" si="1">IF(SUM(R4:R24)=0,"",SUM(R4:R24))</f>
+        <v/>
+      </c>
+      <c r="S25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="25">
+        <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
+        <v>31.4</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="25" t="str">
+        <f>'Page 02'!J27</f>
+        <v/>
+      </c>
+      <c r="K26" s="25" t="str">
+        <f>'Page 02'!K27</f>
+        <v/>
+      </c>
+      <c r="L26" s="25" t="str">
+        <f>'Page 02'!L27</f>
+        <v/>
+      </c>
+      <c r="M26" s="25" t="str">
+        <f>'Page 02'!M27</f>
+        <v/>
+      </c>
+      <c r="N26" s="10" t="str">
+        <f>'Page 02'!N27</f>
+        <v/>
+      </c>
+      <c r="O26" s="25">
+        <f>'Page 02'!O27</f>
+        <v>28.699999999999996</v>
+      </c>
+      <c r="P26" s="10" t="str">
+        <f>'Page 02'!P27</f>
+        <v/>
+      </c>
+      <c r="Q26" s="25">
+        <f>'Page 02'!Q27</f>
+        <v>1.6</v>
+      </c>
+      <c r="R26" s="10" t="str">
+        <f>'Page 02'!R27</f>
+        <v/>
+      </c>
+      <c r="S26" s="25" t="str">
+        <f>'Page 02'!S27</f>
+        <v/>
+      </c>
+      <c r="T26" s="10" t="str">
+        <f>'Page 02'!T27</f>
+        <v/>
+      </c>
+      <c r="U26" s="25" t="str">
+        <f>'Page 02'!U27</f>
+        <v/>
+      </c>
+      <c r="V26" s="10" t="str">
+        <f>'Page 02'!V27</f>
+        <v/>
+      </c>
+      <c r="W26" s="25" t="str">
+        <f>'Page 02'!W27</f>
+        <v/>
+      </c>
+      <c r="X26" s="10" t="str">
+        <f>'Page 02'!X27</f>
+        <v/>
+      </c>
+      <c r="Y26" s="25" t="str">
+        <f>'Page 02'!Y27</f>
+        <v/>
+      </c>
+      <c r="Z26" s="10" t="str">
+        <f>'Page 02'!Z27</f>
+        <v/>
+      </c>
+      <c r="AA26" s="25" t="str">
+        <f>'Page 02'!AA27</f>
+        <v/>
+      </c>
+      <c r="AB26" s="25" t="str">
+        <f>'Page 02'!AB27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="25">
+        <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
+        <v>31.4</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="25" t="str">
+        <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
+        <v/>
+      </c>
+      <c r="K27" s="25" t="str">
+        <f t="shared" ref="K27:M27" si="2">IF(SUM(K25:K26)=0,"",SUM(K25:K26))</f>
+        <v/>
+      </c>
+      <c r="L27" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M27" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N27" s="10" t="str">
+        <f>IF(SUM(N25:N26)=0,"",SUM(N25:N26))</f>
+        <v/>
+      </c>
+      <c r="O27" s="25">
+        <f t="shared" ref="O27:Z27" si="3">IF(SUM(O25:O26)=0,"",SUM(O25:O26))</f>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="P27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q27" s="25">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="R27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA27" s="25" t="str">
+        <f>IF(SUM(AA25:AA26)=0,"",SUM(AA25:AA26))</f>
+        <v/>
+      </c>
+      <c r="AB27" s="25" t="str">
+        <f>IF(SUM(AB25:AB26)=0,"",SUM(AB25:AB26))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13AED63-1410-A341-9CF8-EFDD2A09DD73}">
+  <dimension ref="A1:AB27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -3803,172 +4976,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="33" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="31" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="31" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="31" t="s">
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="32"/>
+      <c r="AB1" s="38"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="31" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="31" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="31" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="32"/>
-      <c r="U2" s="31" t="s">
+      <c r="T2" s="38"/>
+      <c r="U2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="32"/>
-      <c r="W2" s="31" t="s">
+      <c r="V2" s="38"/>
+      <c r="W2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="31" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="40" t="s">
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="40" t="s">
+      <c r="AB2" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="22" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="23" t="s">
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="V3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="W3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="23" t="s">
+      <c r="X3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="23" t="s">
+      <c r="Z3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -4601,22 +5774,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="24" t="str">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
         <v/>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -4695,22 +5868,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="25" t="str">
         <f>'Page 02'!J27</f>
         <v/>
@@ -4789,22 +5962,22 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -4884,34 +6057,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="G27:I27"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log/My_Flying_Logbook.xlsx
+++ b/log/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932870D2-6D16-3C43-A8DA-63C7F1F8D2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D77F638-F44A-BB46-A5F3-19DDD102ADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="72">
   <si>
     <t>Month</t>
   </si>
@@ -624,6 +624,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,26 +666,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -697,15 +706,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,98 +1044,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="28" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="35" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="35" t="s">
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="35"/>
+      <c r="AB1" s="31"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="35" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="31"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="31"/>
+      <c r="S2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="31"/>
+      <c r="U2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="31"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="35" t="s">
+      <c r="AB2" s="31" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1152,8 +1152,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -1163,9 +1163,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -1208,8 +1208,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2226,22 +2226,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="24">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -2320,22 +2320,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
@@ -2357,22 +2357,22 @@
       <c r="AB26" s="25"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -2452,12 +2452,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -2471,15 +2474,12 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2510,98 +2510,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="28" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="37" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="37" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="38"/>
+      <c r="AB1" s="34"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="37" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="37" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="37" t="s">
+      <c r="P2" s="34"/>
+      <c r="Q2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="37" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="37" t="s">
+      <c r="V2" s="34"/>
+      <c r="W2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="37" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="53" t="s">
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="53" t="s">
+      <c r="AB2" s="42" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2618,8 +2618,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -2629,9 +2629,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -2674,8 +2674,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3069,83 +3069,83 @@
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17">
+    <row r="12" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18">
         <v>9</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="15">
+      <c r="H12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
@@ -3478,22 +3478,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="24">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -3572,22 +3572,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="25" t="str">
         <f>'Page 01'!J27</f>
         <v/>
@@ -3666,22 +3666,22 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -3761,12 +3761,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -3780,15 +3783,12 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3819,98 +3819,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="28" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="37" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="37" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="38"/>
+      <c r="AB1" s="34"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="37" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="37" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="37" t="s">
+      <c r="P2" s="34"/>
+      <c r="Q2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="37" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="37" t="s">
+      <c r="V2" s="34"/>
+      <c r="W2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="37" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="53" t="s">
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="53" t="s">
+      <c r="AB2" s="42" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3927,8 +3927,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -3938,9 +3938,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -3983,8 +3983,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -4022,6 +4022,1160 @@
       <c r="O4" s="2">
         <v>1.1000000000000001</v>
       </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+    </row>
+    <row r="24" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="24">
+        <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
+        <v>2</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="24" t="str">
+        <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
+        <v/>
+      </c>
+      <c r="K25" s="24" t="str">
+        <f t="shared" ref="K25:L25" si="0">IF(SUM(K4:K24)=0,"",SUM(K4:K24))</f>
+        <v/>
+      </c>
+      <c r="L25" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M25" s="24" t="str">
+        <f>IF(SUM(M4:M24)=0,"",SUM(M4:M24))</f>
+        <v/>
+      </c>
+      <c r="N25" s="9" t="str">
+        <f>IF(SUM(N4:N24)=0,"",SUM(N4:N24))</f>
+        <v/>
+      </c>
+      <c r="O25" s="24">
+        <f>IF(SUM(O4:O24)=0,"",SUM(O4:O24))</f>
+        <v>2</v>
+      </c>
+      <c r="P25" s="9" t="str">
+        <f>IF(SUM(P4:P24)=0,"",SUM(P4:P24))</f>
+        <v/>
+      </c>
+      <c r="Q25" s="24" t="str">
+        <f>IF(SUM(Q4:Q24)=0,"",SUM(Q4:Q24))</f>
+        <v/>
+      </c>
+      <c r="R25" s="9" t="str">
+        <f t="shared" ref="R25:AB25" si="1">IF(SUM(R4:R24)=0,"",SUM(R4:R24))</f>
+        <v/>
+      </c>
+      <c r="S25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="25">
+        <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="25" t="str">
+        <f>'Page 02'!J27</f>
+        <v/>
+      </c>
+      <c r="K26" s="25" t="str">
+        <f>'Page 02'!K27</f>
+        <v/>
+      </c>
+      <c r="L26" s="25" t="str">
+        <f>'Page 02'!L27</f>
+        <v/>
+      </c>
+      <c r="M26" s="25" t="str">
+        <f>'Page 02'!M27</f>
+        <v/>
+      </c>
+      <c r="N26" s="10" t="str">
+        <f>'Page 02'!N27</f>
+        <v/>
+      </c>
+      <c r="O26" s="25">
+        <f>'Page 02'!O27</f>
+        <v>28.699999999999996</v>
+      </c>
+      <c r="P26" s="10" t="str">
+        <f>'Page 02'!P27</f>
+        <v/>
+      </c>
+      <c r="Q26" s="25">
+        <f>'Page 02'!Q27</f>
+        <v>1.6</v>
+      </c>
+      <c r="R26" s="10" t="str">
+        <f>'Page 02'!R27</f>
+        <v/>
+      </c>
+      <c r="S26" s="25" t="str">
+        <f>'Page 02'!S27</f>
+        <v/>
+      </c>
+      <c r="T26" s="10" t="str">
+        <f>'Page 02'!T27</f>
+        <v/>
+      </c>
+      <c r="U26" s="25" t="str">
+        <f>'Page 02'!U27</f>
+        <v/>
+      </c>
+      <c r="V26" s="10" t="str">
+        <f>'Page 02'!V27</f>
+        <v/>
+      </c>
+      <c r="W26" s="25" t="str">
+        <f>'Page 02'!W27</f>
+        <v/>
+      </c>
+      <c r="X26" s="10" t="str">
+        <f>'Page 02'!X27</f>
+        <v/>
+      </c>
+      <c r="Y26" s="25" t="str">
+        <f>'Page 02'!Y27</f>
+        <v/>
+      </c>
+      <c r="Z26" s="10" t="str">
+        <f>'Page 02'!Z27</f>
+        <v/>
+      </c>
+      <c r="AA26" s="25" t="str">
+        <f>'Page 02'!AA27</f>
+        <v/>
+      </c>
+      <c r="AB26" s="25" t="str">
+        <f>'Page 02'!AB27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="25">
+        <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="25" t="str">
+        <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
+        <v/>
+      </c>
+      <c r="K27" s="25" t="str">
+        <f t="shared" ref="K27:M27" si="2">IF(SUM(K25:K26)=0,"",SUM(K25:K26))</f>
+        <v/>
+      </c>
+      <c r="L27" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M27" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N27" s="10" t="str">
+        <f>IF(SUM(N25:N26)=0,"",SUM(N25:N26))</f>
+        <v/>
+      </c>
+      <c r="O27" s="25">
+        <f t="shared" ref="O27:Z27" si="3">IF(SUM(O25:O26)=0,"",SUM(O25:O26))</f>
+        <v>30.699999999999996</v>
+      </c>
+      <c r="P27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q27" s="25">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="R27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA27" s="25" t="str">
+        <f>IF(SUM(AA25:AA26)=0,"",SUM(AA25:AA26))</f>
+        <v/>
+      </c>
+      <c r="AB27" s="25" t="str">
+        <f>IF(SUM(AB25:AB26)=0,"",SUM(AB25:AB26))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:I27"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13AED63-1410-A341-9CF8-EFDD2A09DD73}">
+  <dimension ref="A1:AB27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="26" width="5.7109375" customWidth="1"/>
+    <col min="27" max="28" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="34"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="34"/>
+      <c r="O2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="34"/>
+      <c r="S2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="34"/>
+      <c r="U2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="34"/>
+      <c r="W2" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="2"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="9"/>
@@ -4637,22 +5791,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="24">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="24" t="str">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G25" s="39" t="s">
+        <v/>
+      </c>
+      <c r="G25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -4673,9 +5827,9 @@
         <f>IF(SUM(N4:N24)=0,"",SUM(N4:N24))</f>
         <v/>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="24" t="str">
         <f>IF(SUM(O4:O24)=0,"",SUM(O4:O24))</f>
-        <v>1.1000000000000001</v>
+        <v/>
       </c>
       <c r="P25" s="9" t="str">
         <f>IF(SUM(P4:P24)=0,"",SUM(P4:P24))</f>
@@ -4731,22 +5885,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
-        <v>31.4</v>
-      </c>
-      <c r="G26" s="41" t="s">
+        <v>30.299999999999997</v>
+      </c>
+      <c r="G26" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="25" t="str">
         <f>'Page 02'!J27</f>
         <v/>
@@ -4825,22 +5979,22 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
-        <v>31.4</v>
-      </c>
-      <c r="G27" s="41" t="s">
+        <v>30.299999999999997</v>
+      </c>
+      <c r="G27" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -4863,7 +6017,7 @@
       </c>
       <c r="O27" s="25">
         <f t="shared" ref="O27:Z27" si="3">IF(SUM(O25:O26)=0,"",SUM(O25:O26))</f>
-        <v>29.799999999999997</v>
+        <v>28.699999999999996</v>
       </c>
       <c r="P27" s="10" t="str">
         <f t="shared" si="3"/>
@@ -4920,12 +6074,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -4939,1152 +6096,12 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13AED63-1410-A341-9CF8-EFDD2A09DD73}">
-  <dimension ref="A1:AB27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
-    <col min="8" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="12" width="7.42578125" customWidth="1"/>
-    <col min="13" max="26" width="5.7109375" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="38"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="X3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-    </row>
-    <row r="24" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="24" t="str">
-        <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
-        <v/>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="24" t="str">
-        <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
-        <v/>
-      </c>
-      <c r="K25" s="24" t="str">
-        <f t="shared" ref="K25:L25" si="0">IF(SUM(K4:K24)=0,"",SUM(K4:K24))</f>
-        <v/>
-      </c>
-      <c r="L25" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M25" s="24" t="str">
-        <f>IF(SUM(M4:M24)=0,"",SUM(M4:M24))</f>
-        <v/>
-      </c>
-      <c r="N25" s="9" t="str">
-        <f>IF(SUM(N4:N24)=0,"",SUM(N4:N24))</f>
-        <v/>
-      </c>
-      <c r="O25" s="24" t="str">
-        <f>IF(SUM(O4:O24)=0,"",SUM(O4:O24))</f>
-        <v/>
-      </c>
-      <c r="P25" s="9" t="str">
-        <f>IF(SUM(P4:P24)=0,"",SUM(P4:P24))</f>
-        <v/>
-      </c>
-      <c r="Q25" s="24" t="str">
-        <f>IF(SUM(Q4:Q24)=0,"",SUM(Q4:Q24))</f>
-        <v/>
-      </c>
-      <c r="R25" s="9" t="str">
-        <f t="shared" ref="R25:AB25" si="1">IF(SUM(R4:R24)=0,"",SUM(R4:R24))</f>
-        <v/>
-      </c>
-      <c r="S25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="25">
-        <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
-        <v>30.299999999999997</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="25" t="str">
-        <f>'Page 02'!J27</f>
-        <v/>
-      </c>
-      <c r="K26" s="25" t="str">
-        <f>'Page 02'!K27</f>
-        <v/>
-      </c>
-      <c r="L26" s="25" t="str">
-        <f>'Page 02'!L27</f>
-        <v/>
-      </c>
-      <c r="M26" s="25" t="str">
-        <f>'Page 02'!M27</f>
-        <v/>
-      </c>
-      <c r="N26" s="10" t="str">
-        <f>'Page 02'!N27</f>
-        <v/>
-      </c>
-      <c r="O26" s="25">
-        <f>'Page 02'!O27</f>
-        <v>28.699999999999996</v>
-      </c>
-      <c r="P26" s="10" t="str">
-        <f>'Page 02'!P27</f>
-        <v/>
-      </c>
-      <c r="Q26" s="25">
-        <f>'Page 02'!Q27</f>
-        <v>1.6</v>
-      </c>
-      <c r="R26" s="10" t="str">
-        <f>'Page 02'!R27</f>
-        <v/>
-      </c>
-      <c r="S26" s="25" t="str">
-        <f>'Page 02'!S27</f>
-        <v/>
-      </c>
-      <c r="T26" s="10" t="str">
-        <f>'Page 02'!T27</f>
-        <v/>
-      </c>
-      <c r="U26" s="25" t="str">
-        <f>'Page 02'!U27</f>
-        <v/>
-      </c>
-      <c r="V26" s="10" t="str">
-        <f>'Page 02'!V27</f>
-        <v/>
-      </c>
-      <c r="W26" s="25" t="str">
-        <f>'Page 02'!W27</f>
-        <v/>
-      </c>
-      <c r="X26" s="10" t="str">
-        <f>'Page 02'!X27</f>
-        <v/>
-      </c>
-      <c r="Y26" s="25" t="str">
-        <f>'Page 02'!Y27</f>
-        <v/>
-      </c>
-      <c r="Z26" s="10" t="str">
-        <f>'Page 02'!Z27</f>
-        <v/>
-      </c>
-      <c r="AA26" s="25" t="str">
-        <f>'Page 02'!AA27</f>
-        <v/>
-      </c>
-      <c r="AB26" s="25" t="str">
-        <f>'Page 02'!AB27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="25">
-        <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
-        <v>30.299999999999997</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="25" t="str">
-        <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
-        <v/>
-      </c>
-      <c r="K27" s="25" t="str">
-        <f t="shared" ref="K27:M27" si="2">IF(SUM(K25:K26)=0,"",SUM(K25:K26))</f>
-        <v/>
-      </c>
-      <c r="L27" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M27" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N27" s="10" t="str">
-        <f>IF(SUM(N25:N26)=0,"",SUM(N25:N26))</f>
-        <v/>
-      </c>
-      <c r="O27" s="25">
-        <f t="shared" ref="O27:Z27" si="3">IF(SUM(O25:O26)=0,"",SUM(O25:O26))</f>
-        <v>28.699999999999996</v>
-      </c>
-      <c r="P27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q27" s="25">
-        <f t="shared" si="3"/>
-        <v>1.6</v>
-      </c>
-      <c r="R27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="W27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="X27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Y27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Z27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AA27" s="25" t="str">
-        <f>IF(SUM(AA25:AA26)=0,"",SUM(AA25:AA26))</f>
-        <v/>
-      </c>
-      <c r="AB27" s="25" t="str">
-        <f>IF(SUM(AB25:AB26)=0,"",SUM(AB25:AB26))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="G27:I27"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log/My_Flying_Logbook.xlsx
+++ b/log/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D77F638-F44A-BB46-A5F3-19DDD102ADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9D3655-0BB1-244C-ABF4-E9748EA4BAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="75">
   <si>
     <t>Month</t>
   </si>
@@ -278,6 +278,15 @@
   </si>
   <si>
     <t>Forced Landing</t>
+  </si>
+  <si>
+    <t>VH-ZFY</t>
+  </si>
+  <si>
+    <t>Advanced Stalling</t>
+  </si>
+  <si>
+    <t>Short Field Circuits</t>
   </si>
 </sst>
 </file>
@@ -624,27 +633,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,14 +654,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,6 +706,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,98 +1053,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="35" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="31" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="31" t="s">
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="31"/>
+      <c r="AB1" s="35"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="31" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31" t="s">
+      <c r="R2" s="35"/>
+      <c r="S2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31" t="s">
+      <c r="T2" s="35"/>
+      <c r="U2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31" t="s">
+      <c r="V2" s="35"/>
+      <c r="W2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31" t="s">
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31" t="s">
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="31" t="s">
+      <c r="AB2" s="35" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1152,8 +1161,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -1163,9 +1172,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -1208,8 +1217,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2226,22 +2235,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="24">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -2320,22 +2329,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
@@ -2357,22 +2366,22 @@
       <c r="AB26" s="25"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -2452,15 +2461,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -2474,12 +2480,15 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2510,98 +2519,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="35" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="33" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="33" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="33" t="s">
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="34"/>
+      <c r="AB1" s="38"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="33" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="33" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="33" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="33" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="33" t="s">
+      <c r="T2" s="38"/>
+      <c r="U2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="34"/>
-      <c r="W2" s="33" t="s">
+      <c r="V2" s="38"/>
+      <c r="W2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="42" t="s">
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="42" t="s">
+      <c r="AB2" s="53" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2618,8 +2627,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -2629,9 +2638,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -2674,8 +2683,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3478,22 +3487,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="24">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -3572,22 +3581,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="25" t="str">
         <f>'Page 01'!J27</f>
         <v/>
@@ -3666,22 +3675,22 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -3761,15 +3770,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:I27"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -3783,12 +3789,15 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3819,98 +3828,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="35" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="33" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="33" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="33" t="s">
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="34"/>
+      <c r="AB1" s="38"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="33" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="33" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="33" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="33" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="33" t="s">
+      <c r="T2" s="38"/>
+      <c r="U2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="34"/>
-      <c r="W2" s="33" t="s">
+      <c r="V2" s="38"/>
+      <c r="W2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="42" t="s">
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="42" t="s">
+      <c r="AB2" s="53" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3927,8 +3936,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -3938,9 +3947,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -3983,8 +3992,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -4053,7 +4062,9 @@
       <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
@@ -4068,6 +4079,1162 @@
       <c r="O5" s="15">
         <v>0.9</v>
       </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17">
+        <v>21</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+    </row>
+    <row r="24" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="24">
+        <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
+        <v>3.1</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="24" t="str">
+        <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
+        <v/>
+      </c>
+      <c r="K25" s="24" t="str">
+        <f t="shared" ref="K25:L25" si="0">IF(SUM(K4:K24)=0,"",SUM(K4:K24))</f>
+        <v/>
+      </c>
+      <c r="L25" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M25" s="24" t="str">
+        <f>IF(SUM(M4:M24)=0,"",SUM(M4:M24))</f>
+        <v/>
+      </c>
+      <c r="N25" s="9" t="str">
+        <f>IF(SUM(N4:N24)=0,"",SUM(N4:N24))</f>
+        <v/>
+      </c>
+      <c r="O25" s="24">
+        <f>IF(SUM(O4:O24)=0,"",SUM(O4:O24))</f>
+        <v>3.1</v>
+      </c>
+      <c r="P25" s="9" t="str">
+        <f>IF(SUM(P4:P24)=0,"",SUM(P4:P24))</f>
+        <v/>
+      </c>
+      <c r="Q25" s="24" t="str">
+        <f>IF(SUM(Q4:Q24)=0,"",SUM(Q4:Q24))</f>
+        <v/>
+      </c>
+      <c r="R25" s="9" t="str">
+        <f t="shared" ref="R25:AB25" si="1">IF(SUM(R4:R24)=0,"",SUM(R4:R24))</f>
+        <v/>
+      </c>
+      <c r="S25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="25">
+        <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
+        <v>33.4</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="25" t="str">
+        <f>'Page 02'!J27</f>
+        <v/>
+      </c>
+      <c r="K26" s="25" t="str">
+        <f>'Page 02'!K27</f>
+        <v/>
+      </c>
+      <c r="L26" s="25" t="str">
+        <f>'Page 02'!L27</f>
+        <v/>
+      </c>
+      <c r="M26" s="25" t="str">
+        <f>'Page 02'!M27</f>
+        <v/>
+      </c>
+      <c r="N26" s="10" t="str">
+        <f>'Page 02'!N27</f>
+        <v/>
+      </c>
+      <c r="O26" s="25">
+        <f>'Page 02'!O27</f>
+        <v>28.699999999999996</v>
+      </c>
+      <c r="P26" s="10" t="str">
+        <f>'Page 02'!P27</f>
+        <v/>
+      </c>
+      <c r="Q26" s="25">
+        <f>'Page 02'!Q27</f>
+        <v>1.6</v>
+      </c>
+      <c r="R26" s="10" t="str">
+        <f>'Page 02'!R27</f>
+        <v/>
+      </c>
+      <c r="S26" s="25" t="str">
+        <f>'Page 02'!S27</f>
+        <v/>
+      </c>
+      <c r="T26" s="10" t="str">
+        <f>'Page 02'!T27</f>
+        <v/>
+      </c>
+      <c r="U26" s="25" t="str">
+        <f>'Page 02'!U27</f>
+        <v/>
+      </c>
+      <c r="V26" s="10" t="str">
+        <f>'Page 02'!V27</f>
+        <v/>
+      </c>
+      <c r="W26" s="25" t="str">
+        <f>'Page 02'!W27</f>
+        <v/>
+      </c>
+      <c r="X26" s="10" t="str">
+        <f>'Page 02'!X27</f>
+        <v/>
+      </c>
+      <c r="Y26" s="25" t="str">
+        <f>'Page 02'!Y27</f>
+        <v/>
+      </c>
+      <c r="Z26" s="10" t="str">
+        <f>'Page 02'!Z27</f>
+        <v/>
+      </c>
+      <c r="AA26" s="25" t="str">
+        <f>'Page 02'!AA27</f>
+        <v/>
+      </c>
+      <c r="AB26" s="25" t="str">
+        <f>'Page 02'!AB27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="25">
+        <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
+        <v>33.4</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="25" t="str">
+        <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
+        <v/>
+      </c>
+      <c r="K27" s="25" t="str">
+        <f t="shared" ref="K27:M27" si="2">IF(SUM(K25:K26)=0,"",SUM(K25:K26))</f>
+        <v/>
+      </c>
+      <c r="L27" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M27" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N27" s="10" t="str">
+        <f>IF(SUM(N25:N26)=0,"",SUM(N25:N26))</f>
+        <v/>
+      </c>
+      <c r="O27" s="25">
+        <f t="shared" ref="O27:Z27" si="3">IF(SUM(O25:O26)=0,"",SUM(O25:O26))</f>
+        <v>31.799999999999997</v>
+      </c>
+      <c r="P27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q27" s="25">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="R27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y27" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA27" s="25" t="str">
+        <f>IF(SUM(AA25:AA26)=0,"",SUM(AA25:AA26))</f>
+        <v/>
+      </c>
+      <c r="AB27" s="25" t="str">
+        <f>IF(SUM(AB25:AB26)=0,"",SUM(AB25:AB26))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13AED63-1410-A341-9CF8-EFDD2A09DD73}">
+  <dimension ref="A1:AB27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="26" width="5.7109375" customWidth="1"/>
+    <col min="27" max="28" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="49"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="38"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="38"/>
+      <c r="O2" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="38"/>
+      <c r="S2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="38"/>
+      <c r="U2" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="38"/>
+      <c r="W2" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="15"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="10"/>
@@ -4653,22 +5820,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="24">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="24" t="str">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
-        <v>2</v>
-      </c>
-      <c r="G25" s="28" t="s">
+        <v/>
+      </c>
+      <c r="G25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -4689,9 +5856,9 @@
         <f>IF(SUM(N4:N24)=0,"",SUM(N4:N24))</f>
         <v/>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="24" t="str">
         <f>IF(SUM(O4:O24)=0,"",SUM(O4:O24))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="P25" s="9" t="str">
         <f>IF(SUM(P4:P24)=0,"",SUM(P4:P24))</f>
@@ -4747,22 +5914,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="G26" s="30" t="s">
+        <v>30.299999999999997</v>
+      </c>
+      <c r="G26" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="25" t="str">
         <f>'Page 02'!J27</f>
         <v/>
@@ -4841,22 +6008,22 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="G27" s="30" t="s">
+        <v>30.299999999999997</v>
+      </c>
+      <c r="G27" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -4879,7 +6046,7 @@
       </c>
       <c r="O27" s="25">
         <f t="shared" ref="O27:Z27" si="3">IF(SUM(O25:O26)=0,"",SUM(O25:O26))</f>
-        <v>30.699999999999996</v>
+        <v>28.699999999999996</v>
       </c>
       <c r="P27" s="10" t="str">
         <f t="shared" si="3"/>
@@ -4936,15 +6103,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:I27"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -4958,1122 +6122,6 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G27:I27"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13AED63-1410-A341-9CF8-EFDD2A09DD73}">
-  <dimension ref="A1:AB27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
-    <col min="8" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="12" width="7.42578125" customWidth="1"/>
-    <col min="13" max="26" width="5.7109375" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="34"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="34"/>
-      <c r="W2" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="X3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-    </row>
-    <row r="24" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="24" t="str">
-        <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
-        <v/>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="24" t="str">
-        <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
-        <v/>
-      </c>
-      <c r="K25" s="24" t="str">
-        <f t="shared" ref="K25:L25" si="0">IF(SUM(K4:K24)=0,"",SUM(K4:K24))</f>
-        <v/>
-      </c>
-      <c r="L25" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M25" s="24" t="str">
-        <f>IF(SUM(M4:M24)=0,"",SUM(M4:M24))</f>
-        <v/>
-      </c>
-      <c r="N25" s="9" t="str">
-        <f>IF(SUM(N4:N24)=0,"",SUM(N4:N24))</f>
-        <v/>
-      </c>
-      <c r="O25" s="24" t="str">
-        <f>IF(SUM(O4:O24)=0,"",SUM(O4:O24))</f>
-        <v/>
-      </c>
-      <c r="P25" s="9" t="str">
-        <f>IF(SUM(P4:P24)=0,"",SUM(P4:P24))</f>
-        <v/>
-      </c>
-      <c r="Q25" s="24" t="str">
-        <f>IF(SUM(Q4:Q24)=0,"",SUM(Q4:Q24))</f>
-        <v/>
-      </c>
-      <c r="R25" s="9" t="str">
-        <f t="shared" ref="R25:AB25" si="1">IF(SUM(R4:R24)=0,"",SUM(R4:R24))</f>
-        <v/>
-      </c>
-      <c r="S25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="25">
-        <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
-        <v>30.299999999999997</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="25" t="str">
-        <f>'Page 02'!J27</f>
-        <v/>
-      </c>
-      <c r="K26" s="25" t="str">
-        <f>'Page 02'!K27</f>
-        <v/>
-      </c>
-      <c r="L26" s="25" t="str">
-        <f>'Page 02'!L27</f>
-        <v/>
-      </c>
-      <c r="M26" s="25" t="str">
-        <f>'Page 02'!M27</f>
-        <v/>
-      </c>
-      <c r="N26" s="10" t="str">
-        <f>'Page 02'!N27</f>
-        <v/>
-      </c>
-      <c r="O26" s="25">
-        <f>'Page 02'!O27</f>
-        <v>28.699999999999996</v>
-      </c>
-      <c r="P26" s="10" t="str">
-        <f>'Page 02'!P27</f>
-        <v/>
-      </c>
-      <c r="Q26" s="25">
-        <f>'Page 02'!Q27</f>
-        <v>1.6</v>
-      </c>
-      <c r="R26" s="10" t="str">
-        <f>'Page 02'!R27</f>
-        <v/>
-      </c>
-      <c r="S26" s="25" t="str">
-        <f>'Page 02'!S27</f>
-        <v/>
-      </c>
-      <c r="T26" s="10" t="str">
-        <f>'Page 02'!T27</f>
-        <v/>
-      </c>
-      <c r="U26" s="25" t="str">
-        <f>'Page 02'!U27</f>
-        <v/>
-      </c>
-      <c r="V26" s="10" t="str">
-        <f>'Page 02'!V27</f>
-        <v/>
-      </c>
-      <c r="W26" s="25" t="str">
-        <f>'Page 02'!W27</f>
-        <v/>
-      </c>
-      <c r="X26" s="10" t="str">
-        <f>'Page 02'!X27</f>
-        <v/>
-      </c>
-      <c r="Y26" s="25" t="str">
-        <f>'Page 02'!Y27</f>
-        <v/>
-      </c>
-      <c r="Z26" s="10" t="str">
-        <f>'Page 02'!Z27</f>
-        <v/>
-      </c>
-      <c r="AA26" s="25" t="str">
-        <f>'Page 02'!AA27</f>
-        <v/>
-      </c>
-      <c r="AB26" s="25" t="str">
-        <f>'Page 02'!AB27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="25">
-        <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
-        <v>30.299999999999997</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="25" t="str">
-        <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
-        <v/>
-      </c>
-      <c r="K27" s="25" t="str">
-        <f t="shared" ref="K27:M27" si="2">IF(SUM(K25:K26)=0,"",SUM(K25:K26))</f>
-        <v/>
-      </c>
-      <c r="L27" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M27" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N27" s="10" t="str">
-        <f>IF(SUM(N25:N26)=0,"",SUM(N25:N26))</f>
-        <v/>
-      </c>
-      <c r="O27" s="25">
-        <f t="shared" ref="O27:Z27" si="3">IF(SUM(O25:O26)=0,"",SUM(O25:O26))</f>
-        <v>28.699999999999996</v>
-      </c>
-      <c r="P27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q27" s="25">
-        <f t="shared" si="3"/>
-        <v>1.6</v>
-      </c>
-      <c r="R27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="W27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="X27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Y27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Z27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AA27" s="25" t="str">
-        <f>IF(SUM(AA25:AA26)=0,"",SUM(AA25:AA26))</f>
-        <v/>
-      </c>
-      <c r="AB27" s="25" t="str">
-        <f>IF(SUM(AB25:AB26)=0,"",SUM(AB25:AB26))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:D2"/>
@@ -6083,25 +6131,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log/My_Flying_Logbook.xlsx
+++ b/log/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9D3655-0BB1-244C-ABF4-E9748EA4BAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6A9754-E0DF-1E40-9F11-C4A9105AAFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="76">
   <si>
     <t>Month</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Short Field Circuits</t>
+  </si>
+  <si>
+    <t>Basic Instrument Flying</t>
   </si>
 </sst>
 </file>
@@ -633,6 +636,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -654,26 +678,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,15 +718,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1053,98 +1056,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="28" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="35" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="35" t="s">
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="35"/>
+      <c r="AB1" s="31"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="35" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="31"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="31"/>
+      <c r="S2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="31"/>
+      <c r="U2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="31"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="35" t="s">
+      <c r="AB2" s="31" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1161,8 +1164,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -1172,9 +1175,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1220,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2235,22 +2238,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="24">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -2329,22 +2332,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
@@ -2366,22 +2369,22 @@
       <c r="AB26" s="25"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -2461,12 +2464,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -2480,15 +2486,12 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2500,7 +2503,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -2519,98 +2522,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="28" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="37" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="37" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="38"/>
+      <c r="AB1" s="34"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="37" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="37" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="37" t="s">
+      <c r="P2" s="34"/>
+      <c r="Q2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="37" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="37" t="s">
+      <c r="V2" s="34"/>
+      <c r="W2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="37" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="53" t="s">
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="53" t="s">
+      <c r="AB2" s="42" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2627,8 +2630,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -2638,9 +2641,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -2683,8 +2686,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3487,22 +3490,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="24">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -3581,22 +3584,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="25" t="str">
         <f>'Page 01'!J27</f>
         <v/>
@@ -3675,22 +3678,22 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -3770,12 +3773,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -3789,15 +3795,12 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3828,98 +3831,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="28" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="37" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="37" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="38"/>
+      <c r="AB1" s="34"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="37" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="37" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="37" t="s">
+      <c r="P2" s="34"/>
+      <c r="Q2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="37" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="37" t="s">
+      <c r="V2" s="34"/>
+      <c r="W2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="37" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="53" t="s">
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="53" t="s">
+      <c r="AB2" s="42" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3936,8 +3939,8 @@
       <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
@@ -3947,9 +3950,9 @@
       <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
       <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
@@ -3992,8 +3995,8 @@
       <c r="Z3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -4143,20 +4146,38 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="B7" s="17">
+        <v>26</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="15"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="15"/>
+      <c r="O7" s="15">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="10"/>
@@ -4168,7 +4189,9 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="10"/>
-      <c r="AA7" s="15"/>
+      <c r="AA7" s="15">
+        <v>0.6</v>
+      </c>
       <c r="AB7" s="15"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
@@ -4682,22 +4705,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="24">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
-        <v>3.1</v>
-      </c>
-      <c r="G25" s="39" t="s">
+        <v>4.2</v>
+      </c>
+      <c r="G25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -4720,7 +4743,7 @@
       </c>
       <c r="O25" s="24">
         <f>IF(SUM(O4:O24)=0,"",SUM(O4:O24))</f>
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P25" s="9" t="str">
         <f>IF(SUM(P4:P24)=0,"",SUM(P4:P24))</f>
@@ -4766,9 +4789,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA25" s="24" t="str">
+      <c r="AA25" s="24">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.6</v>
       </c>
       <c r="AB25" s="24" t="str">
         <f t="shared" si="1"/>
@@ -4776,22 +4799,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
-        <v>33.4</v>
-      </c>
-      <c r="G26" s="41" t="s">
+        <v>34.5</v>
+      </c>
+      <c r="G26" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="25" t="str">
         <f>'Page 02'!J27</f>
         <v/>
@@ -4870,22 +4893,22 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
-        <v>33.4</v>
-      </c>
-      <c r="G27" s="41" t="s">
+        <v>34.5</v>
+      </c>
+      <c r="G27" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -4908,7 +4931,7 @@
       </c>
       <c r="O27" s="25">
         <f t="shared" ref="O27:Z27" si="3">IF(SUM(O25:O26)=0,"",SUM(O25:O26))</f>
-        <v>31.799999999999997</v>
+        <v>32.9</v>
       </c>
       <c r="P27" s="10" t="str">
         <f t="shared" si="3"/>
@@ -4954,9 +4977,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA27" s="25" t="str">
+      <c r="AA27" s="25">
         <f>IF(SUM(AA25:AA26)=0,"",SUM(AA25:AA26))</f>
-        <v/>
+        <v>0.6</v>
       </c>
       <c r="AB27" s="25" t="str">
         <f>IF(SUM(AB25:AB26)=0,"",SUM(AB25:AB26))</f>
@@ -4965,12 +4988,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -4984,15 +5010,12 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5022,98 +5045,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="28" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="37" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="37" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="38"/>
+      <c r="AB1" s="34"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="37" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="37" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="37" t="s">
+      <c r="P2" s="34"/>
+      <c r="Q2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="37" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="37" t="s">
+      <c r="V2" s="34"/>
+      <c r="W2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="37" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="53" t="s">
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="53" t="s">
+      <c r="AB2" s="42" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5130,8 +5153,8 @@
       <c r="D3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="27" t="s">
         <v>30</v>
       </c>
@@ -5141,9 +5164,9 @@
       <c r="I3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
       <c r="M3" s="26" t="s">
         <v>10</v>
       </c>
@@ -5186,8 +5209,8 @@
       <c r="Z3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -5820,22 +5843,22 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="24" t="str">
         <f>IF(SUM(J25:Z25)=0,"",SUM(J25:Z25))</f>
         <v/>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="24" t="str">
         <f>IF(SUM(J4:J24)=0,"",SUM(J4:J24))</f>
         <v/>
@@ -5914,22 +5937,22 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="25">
         <f>IF(SUM(J27:Z27)=0,"",SUM(J27:Z27))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="25" t="str">
         <f>'Page 02'!J27</f>
         <v/>
@@ -6008,22 +6031,22 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="25">
         <f>IF(SUM(F26,AB27)=0, "", SUM(F26,AB27))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="25" t="str">
         <f>IF(SUM(J25:J26)=0,"",SUM(J25:J26))</f>
         <v/>
@@ -6103,12 +6126,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AB2:AB3"/>
@@ -6122,15 +6148,12 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log/My_Flying_Logbook.xlsx
+++ b/log/My_Flying_Logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F538664-2E34-6448-88AE-DC5C3906B78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE44405-3BEB-3C47-A715-C9F3FD958B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Theorem Exam Pass Record" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="83">
   <si>
     <t>Month</t>
   </si>
@@ -324,6 +324,9 @@
       </rPr>
       <t>2022</t>
     </r>
+  </si>
+  <si>
+    <t>February</t>
   </si>
 </sst>
 </file>
@@ -941,9 +944,156 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -953,32 +1103,50 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -986,6 +1154,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,174 +1164,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1451,144 +1454,144 @@
   <sheetData>
     <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="23">
         <v>1127225</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="50">
+      <c r="B6" s="30">
         <v>44308</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="31" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="50">
+      <c r="B7" s="30">
         <v>44575</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="31" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="52"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="53"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="52"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="53"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="52"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="53"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="52"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="53"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="52"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="53"/>
+      <c r="D12" s="33"/>
     </row>
     <row r="13" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="53"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="52"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="53"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="52"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="53"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="52"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="53"/>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="52"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="53"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="52"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="53"/>
+      <c r="D18" s="33"/>
     </row>
     <row r="19" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="52"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="53"/>
+      <c r="D19" s="33"/>
     </row>
     <row r="20" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="52"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="53"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="21" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="54"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="55"/>
+      <c r="D21" s="35"/>
     </row>
     <row r="22" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1621,103 +1624,103 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="62" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="62" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="65"/>
+      <c r="AC2" s="62"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="66"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="26" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26" t="s">
+      <c r="S3" s="56"/>
+      <c r="T3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26" t="s">
+      <c r="W3" s="56"/>
+      <c r="X3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26" t="s">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26" t="s">
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="67" t="s">
+      <c r="AC3" s="57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -1729,8 +1732,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1740,9 +1743,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1785,11 +1788,11 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="69"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="58"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="37" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1">
@@ -1836,10 +1839,10 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="71"/>
+      <c r="AC5" s="38"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="52"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="13">
         <v>29</v>
       </c>
@@ -1884,10 +1887,10 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="11"/>
-      <c r="AC6" s="72"/>
+      <c r="AC6" s="39"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="52"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="13">
         <v>30</v>
       </c>
@@ -1932,10 +1935,10 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="11"/>
-      <c r="AC7" s="72"/>
+      <c r="AC7" s="39"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="52"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="13">
         <v>30</v>
       </c>
@@ -1980,10 +1983,10 @@
       <c r="Z8" s="11"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="11"/>
-      <c r="AC8" s="72"/>
+      <c r="AC8" s="39"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="52"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="13">
         <v>31</v>
       </c>
@@ -2028,10 +2031,10 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="11"/>
-      <c r="AC9" s="72"/>
+      <c r="AC9" s="39"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="13">
@@ -2078,10 +2081,10 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="11"/>
-      <c r="AC10" s="72"/>
+      <c r="AC10" s="39"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="52"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="13">
         <v>7</v>
       </c>
@@ -2126,10 +2129,10 @@
       <c r="Z11" s="11"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="11"/>
-      <c r="AC11" s="72"/>
+      <c r="AC11" s="39"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="52"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="13">
         <v>8</v>
       </c>
@@ -2174,10 +2177,10 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="72"/>
+      <c r="AC12" s="39"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="13">
         <v>8</v>
       </c>
@@ -2222,10 +2225,10 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="11"/>
-      <c r="AC13" s="72"/>
+      <c r="AC13" s="39"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="52"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="13">
         <v>9</v>
       </c>
@@ -2270,10 +2273,10 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="72"/>
+      <c r="AC14" s="39"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="52"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="13">
         <v>9</v>
       </c>
@@ -2318,10 +2321,10 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="11"/>
-      <c r="AC15" s="72"/>
+      <c r="AC15" s="39"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="52"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="13">
         <v>12</v>
       </c>
@@ -2366,10 +2369,10 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="11"/>
-      <c r="AC16" s="72"/>
+      <c r="AC16" s="39"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B17" s="52"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="13">
         <v>13</v>
       </c>
@@ -2414,10 +2417,10 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="11"/>
-      <c r="AC17" s="72"/>
+      <c r="AC17" s="39"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B18" s="52"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="13">
         <v>14</v>
       </c>
@@ -2462,10 +2465,10 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="72"/>
+      <c r="AC18" s="39"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B19" s="52"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="13">
         <v>20</v>
       </c>
@@ -2510,10 +2513,10 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="72"/>
+      <c r="AC19" s="39"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B20" s="52"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="13">
         <v>20</v>
       </c>
@@ -2558,10 +2561,10 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="72"/>
+      <c r="AC20" s="39"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="52"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="13">
         <v>28</v>
       </c>
@@ -2606,10 +2609,10 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="72"/>
+      <c r="AC21" s="39"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B22" s="52"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="13">
         <v>29</v>
       </c>
@@ -2654,10 +2657,10 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="72"/>
+      <c r="AC22" s="39"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="32" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="13">
@@ -2704,10 +2707,10 @@
       <c r="Z23" s="11"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="72"/>
+      <c r="AC23" s="39"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B24" s="73"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="15">
         <v>10</v>
       </c>
@@ -2752,10 +2755,10 @@
       <c r="Z24" s="16"/>
       <c r="AA24" s="17"/>
       <c r="AB24" s="16"/>
-      <c r="AC24" s="74"/>
+      <c r="AC24" s="41"/>
     </row>
     <row r="25" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="54"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="14">
         <v>25</v>
       </c>
@@ -2800,25 +2803,25 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="75"/>
+      <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2891,28 +2894,28 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC26" s="77" t="str">
+      <c r="AC26" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2931,38 +2934,38 @@
       <c r="Z27" s="19"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="19"/>
-      <c r="AC27" s="79"/>
+      <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="82">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="82" t="str">
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
       </c>
-      <c r="L28" s="82" t="str">
+      <c r="L28" s="45" t="str">
         <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
         <v/>
       </c>
-      <c r="M28" s="82" t="str">
+      <c r="M28" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="82" t="str">
+      <c r="N28" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2970,7 +2973,7 @@
         <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
         <v/>
       </c>
-      <c r="P28" s="82">
+      <c r="P28" s="45">
         <f t="shared" ref="P28:Q28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
         <v>23.499999999999996</v>
       </c>
@@ -2978,7 +2981,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R28" s="82" t="str">
+      <c r="R28" s="45" t="str">
         <f t="shared" ref="R28:S28" si="4">IF(SUM(R26:R27)=0,"",SUM(R26:R27))</f>
         <v/>
       </c>
@@ -2986,7 +2989,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="T28" s="82" t="str">
+      <c r="T28" s="45" t="str">
         <f t="shared" ref="T28:U28" si="5">IF(SUM(T26:T27)=0,"",SUM(T26:T27))</f>
         <v/>
       </c>
@@ -2994,7 +2997,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V28" s="82" t="str">
+      <c r="V28" s="45" t="str">
         <f t="shared" ref="V28:W28" si="6">IF(SUM(V26:V27)=0,"",SUM(V26:V27))</f>
         <v/>
       </c>
@@ -3002,7 +3005,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="X28" s="82" t="str">
+      <c r="X28" s="45" t="str">
         <f t="shared" ref="X28:Y28" si="7">IF(SUM(X26:X27)=0,"",SUM(X26:X27))</f>
         <v/>
       </c>
@@ -3010,7 +3013,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z28" s="82" t="str">
+      <c r="Z28" s="45" t="str">
         <f t="shared" ref="Z28:AA28" si="8">IF(SUM(Z26:Z27)=0,"",SUM(Z26:Z27))</f>
         <v/>
       </c>
@@ -3018,23 +3021,26 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AB28" s="82" t="str">
+      <c r="AB28" s="45" t="str">
         <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
         <v/>
       </c>
-      <c r="AC28" s="83" t="str">
+      <c r="AC28" s="46" t="str">
         <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3048,15 +3054,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3092,103 +3095,103 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="87" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="59" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="63" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="63" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="63" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="90"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="91"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="28" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="28" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="28" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="28" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="28" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="28" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="28" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="40" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="92" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -3200,8 +3203,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3211,9 +3214,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3256,11 +3259,11 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="93"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="1">
@@ -3307,10 +3310,10 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="71"/>
+      <c r="AC5" s="38"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="94"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="8">
         <v>31</v>
       </c>
@@ -3355,10 +3358,10 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="95"/>
+      <c r="AC6" s="48"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="32" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="13">
@@ -3405,10 +3408,10 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="11"/>
-      <c r="AC7" s="72"/>
+      <c r="AC7" s="39"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="70"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="1">
         <v>22</v>
       </c>
@@ -3453,10 +3456,10 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="71"/>
+      <c r="AC8" s="38"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="52"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="13">
         <v>22</v>
       </c>
@@ -3501,10 +3504,10 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="11"/>
-      <c r="AC9" s="72"/>
+      <c r="AC9" s="39"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="1">
@@ -3551,10 +3554,10 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="71"/>
+      <c r="AC10" s="38"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="52"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="13">
         <v>6</v>
       </c>
@@ -3599,10 +3602,10 @@
       <c r="Z11" s="11"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="11"/>
-      <c r="AC11" s="72"/>
+      <c r="AC11" s="39"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="32" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="13">
@@ -3649,10 +3652,10 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="72"/>
+      <c r="AC12" s="39"/>
     </row>
     <row r="13" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="54"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="14">
         <v>9</v>
       </c>
@@ -3697,10 +3700,10 @@
       <c r="Z13" s="12"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="12"/>
-      <c r="AC13" s="75"/>
+      <c r="AC13" s="42"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="70"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3727,10 +3730,10 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="71"/>
+      <c r="AC14" s="38"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="52"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -3757,10 +3760,10 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="11"/>
-      <c r="AC15" s="72"/>
+      <c r="AC15" s="39"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="52"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -3787,10 +3790,10 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="11"/>
-      <c r="AC16" s="72"/>
+      <c r="AC16" s="39"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B17" s="52"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -3817,10 +3820,10 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="11"/>
-      <c r="AC17" s="72"/>
+      <c r="AC17" s="39"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B18" s="52"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -3847,10 +3850,10 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="72"/>
+      <c r="AC18" s="39"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B19" s="52"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -3877,10 +3880,10 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="72"/>
+      <c r="AC19" s="39"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B20" s="52"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -3907,10 +3910,10 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="72"/>
+      <c r="AC20" s="39"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="52"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -3937,10 +3940,10 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="72"/>
+      <c r="AC21" s="39"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B22" s="52"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -3967,10 +3970,10 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="72"/>
+      <c r="AC22" s="39"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B23" s="52"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -3997,10 +4000,10 @@
       <c r="Z23" s="11"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="72"/>
+      <c r="AC23" s="39"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B24" s="73"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -4027,10 +4030,10 @@
       <c r="Z24" s="16"/>
       <c r="AA24" s="17"/>
       <c r="AB24" s="16"/>
-      <c r="AC24" s="74"/>
+      <c r="AC24" s="41"/>
     </row>
     <row r="25" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="54"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -4057,25 +4060,25 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="75"/>
+      <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4148,28 +4151,28 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC26" s="77" t="str">
+      <c r="AC26" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4242,41 +4245,41 @@
         <f>'Page 01'!AB28</f>
         <v/>
       </c>
-      <c r="AC27" s="79" t="str">
+      <c r="AC27" s="44" t="str">
         <f>'Page 01'!AC28</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="82">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="82" t="str">
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
       </c>
-      <c r="L28" s="82" t="str">
+      <c r="L28" s="45" t="str">
         <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
         <v/>
       </c>
-      <c r="M28" s="82" t="str">
+      <c r="M28" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="82" t="str">
+      <c r="N28" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4284,7 +4287,7 @@
         <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
         <v/>
       </c>
-      <c r="P28" s="82">
+      <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
         <v>28.699999999999996</v>
       </c>
@@ -4292,7 +4295,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R28" s="82">
+      <c r="R28" s="45">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
@@ -4300,7 +4303,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T28" s="82" t="str">
+      <c r="T28" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4308,7 +4311,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V28" s="82" t="str">
+      <c r="V28" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4316,7 +4319,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X28" s="82" t="str">
+      <c r="X28" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4324,7 +4327,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z28" s="82" t="str">
+      <c r="Z28" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4332,23 +4335,26 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB28" s="82" t="str">
+      <c r="AB28" s="45" t="str">
         <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
         <v/>
       </c>
-      <c r="AC28" s="83" t="str">
+      <c r="AC28" s="46" t="str">
         <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4362,15 +4368,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4386,7 +4389,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4405,103 +4410,103 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="87" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="59" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="63" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="63" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="63" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="90"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="91"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="28" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="28" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="28" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="28" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="28" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="28" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="28" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="40" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="92" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -4513,8 +4518,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4524,9 +4529,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4569,11 +4574,11 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="93"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="37" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="1">
@@ -4620,10 +4625,10 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="71"/>
+      <c r="AC5" s="38"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="52"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="13">
         <v>15</v>
       </c>
@@ -4668,10 +4673,10 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="11"/>
-      <c r="AC6" s="72"/>
+      <c r="AC6" s="39"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="52"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="13">
         <v>21</v>
       </c>
@@ -4716,10 +4721,10 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="11"/>
-      <c r="AC7" s="72"/>
+      <c r="AC7" s="39"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="52"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="13">
         <v>26</v>
       </c>
@@ -4766,10 +4771,10 @@
       <c r="AB8" s="11">
         <v>0.6</v>
       </c>
-      <c r="AC8" s="72"/>
+      <c r="AC8" s="39"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="52"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="13">
         <v>29</v>
       </c>
@@ -4814,24 +4819,44 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="11"/>
-      <c r="AC9" s="72"/>
+      <c r="AC9" s="39"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="52"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="B10" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="13">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="11"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="11"/>
+      <c r="P10" s="11">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="11"/>
       <c r="S10" s="6"/>
@@ -4844,10 +4869,10 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="11"/>
-      <c r="AC10" s="72"/>
+      <c r="AC10" s="39"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="52"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -4874,10 +4899,10 @@
       <c r="Z11" s="11"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="11"/>
-      <c r="AC11" s="72"/>
+      <c r="AC11" s="39"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="52"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -4904,10 +4929,10 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="72"/>
+      <c r="AC12" s="39"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -4934,10 +4959,10 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="11"/>
-      <c r="AC13" s="72"/>
+      <c r="AC13" s="39"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="52"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -4964,10 +4989,10 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="72"/>
+      <c r="AC14" s="39"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="52"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -4994,10 +5019,10 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="11"/>
-      <c r="AC15" s="72"/>
+      <c r="AC15" s="39"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="52"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -5024,10 +5049,10 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="11"/>
-      <c r="AC16" s="72"/>
+      <c r="AC16" s="39"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B17" s="52"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -5054,10 +5079,10 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="11"/>
-      <c r="AC17" s="72"/>
+      <c r="AC17" s="39"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B18" s="52"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -5084,10 +5109,10 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="72"/>
+      <c r="AC18" s="39"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B19" s="52"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -5114,10 +5139,10 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="72"/>
+      <c r="AC19" s="39"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B20" s="52"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -5144,10 +5169,10 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="72"/>
+      <c r="AC20" s="39"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="52"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -5174,10 +5199,10 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="72"/>
+      <c r="AC21" s="39"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B22" s="52"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -5204,10 +5229,10 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="72"/>
+      <c r="AC22" s="39"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B23" s="73"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -5234,10 +5259,10 @@
       <c r="Z23" s="16"/>
       <c r="AA23" s="17"/>
       <c r="AB23" s="16"/>
-      <c r="AC23" s="74"/>
+      <c r="AC23" s="41"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B24" s="52"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -5264,10 +5289,10 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="72"/>
+      <c r="AC24" s="39"/>
     </row>
     <row r="25" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="54"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -5294,25 +5319,25 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="75"/>
+      <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5335,7 +5360,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>4.9000000000000004</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -5385,28 +5410,28 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="AC26" s="77" t="str">
+      <c r="AC26" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>35.199999999999996</v>
-      </c>
-      <c r="H27" s="32" t="s">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5479,41 +5504,41 @@
         <f>'Page 02'!AB28</f>
         <v/>
       </c>
-      <c r="AC27" s="79" t="str">
+      <c r="AC27" s="44" t="str">
         <f>'Page 02'!AC28</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="82">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>35.199999999999996</v>
-      </c>
-      <c r="H28" s="81" t="s">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="82" t="str">
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
       </c>
-      <c r="L28" s="82" t="str">
+      <c r="L28" s="45" t="str">
         <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
         <v/>
       </c>
-      <c r="M28" s="82" t="str">
+      <c r="M28" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="82" t="str">
+      <c r="N28" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5521,15 +5546,15 @@
         <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
         <v/>
       </c>
-      <c r="P28" s="82">
+      <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>33.599999999999994</v>
+        <v>34.699999999999996</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R28" s="82">
+      <c r="R28" s="45">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
@@ -5537,7 +5562,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T28" s="82" t="str">
+      <c r="T28" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5545,7 +5570,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V28" s="82" t="str">
+      <c r="V28" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5553,7 +5578,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X28" s="82" t="str">
+      <c r="X28" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5561,7 +5586,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z28" s="82" t="str">
+      <c r="Z28" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5569,23 +5594,26 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB28" s="82">
+      <c r="AB28" s="45">
         <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
         <v>0.6</v>
       </c>
-      <c r="AC28" s="83" t="str">
+      <c r="AC28" s="46" t="str">
         <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5599,15 +5627,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5641,103 +5666,103 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="87" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="59" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="63" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="63" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="63" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="90"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="91"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="28" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="28" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="28" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="28" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="28" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="28" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="28" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="40" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="92" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -5749,8 +5774,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -5760,9 +5785,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -5805,11 +5830,11 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="93"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="70"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5836,10 +5861,10 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="71"/>
+      <c r="AC5" s="38"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="52"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -5866,10 +5891,10 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="11"/>
-      <c r="AC6" s="72"/>
+      <c r="AC6" s="39"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="52"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -5896,10 +5921,10 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="11"/>
-      <c r="AC7" s="72"/>
+      <c r="AC7" s="39"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="52"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -5926,10 +5951,10 @@
       <c r="Z8" s="11"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="11"/>
-      <c r="AC8" s="72"/>
+      <c r="AC8" s="39"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="52"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -5956,10 +5981,10 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="11"/>
-      <c r="AC9" s="72"/>
+      <c r="AC9" s="39"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="52"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -5986,10 +6011,10 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="11"/>
-      <c r="AC10" s="72"/>
+      <c r="AC10" s="39"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="52"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -6016,10 +6041,10 @@
       <c r="Z11" s="11"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="11"/>
-      <c r="AC11" s="72"/>
+      <c r="AC11" s="39"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="52"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -6046,10 +6071,10 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="72"/>
+      <c r="AC12" s="39"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -6076,10 +6101,10 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="11"/>
-      <c r="AC13" s="72"/>
+      <c r="AC13" s="39"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="52"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -6106,10 +6131,10 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="72"/>
+      <c r="AC14" s="39"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="52"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -6136,10 +6161,10 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="11"/>
-      <c r="AC15" s="72"/>
+      <c r="AC15" s="39"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="52"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -6166,10 +6191,10 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="11"/>
-      <c r="AC16" s="72"/>
+      <c r="AC16" s="39"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B17" s="52"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -6196,10 +6221,10 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="11"/>
-      <c r="AC17" s="72"/>
+      <c r="AC17" s="39"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B18" s="52"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -6226,10 +6251,10 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="72"/>
+      <c r="AC18" s="39"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B19" s="52"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -6256,10 +6281,10 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="72"/>
+      <c r="AC19" s="39"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B20" s="52"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -6286,10 +6311,10 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="72"/>
+      <c r="AC20" s="39"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="52"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -6316,10 +6341,10 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="72"/>
+      <c r="AC21" s="39"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B22" s="52"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -6346,10 +6371,10 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="72"/>
+      <c r="AC22" s="39"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B23" s="73"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -6376,10 +6401,10 @@
       <c r="Z23" s="16"/>
       <c r="AA23" s="17"/>
       <c r="AB23" s="16"/>
-      <c r="AC23" s="74"/>
+      <c r="AC23" s="41"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B24" s="52"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -6406,10 +6431,10 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="72"/>
+      <c r="AC24" s="39"/>
     </row>
     <row r="25" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="54"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -6436,25 +6461,25 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="75"/>
+      <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6527,28 +6552,28 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC26" s="77" t="str">
+      <c r="AC26" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>35.199999999999996</v>
-      </c>
-      <c r="H27" s="32" t="s">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -6571,7 +6596,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 03'!P28</f>
-        <v>33.599999999999994</v>
+        <v>34.699999999999996</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 03'!Q28</f>
@@ -6621,41 +6646,41 @@
         <f>'Page 03'!AB28</f>
         <v>0.6</v>
       </c>
-      <c r="AC27" s="79" t="str">
+      <c r="AC27" s="44" t="str">
         <f>'Page 03'!AC28</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="82">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>35.199999999999996</v>
-      </c>
-      <c r="H28" s="81" t="s">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="82" t="str">
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
       </c>
-      <c r="L28" s="82" t="str">
+      <c r="L28" s="45" t="str">
         <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
         <v/>
       </c>
-      <c r="M28" s="82" t="str">
+      <c r="M28" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="82" t="str">
+      <c r="N28" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6663,15 +6688,15 @@
         <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
         <v/>
       </c>
-      <c r="P28" s="82">
+      <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>33.599999999999994</v>
+        <v>34.699999999999996</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R28" s="82">
+      <c r="R28" s="45">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
@@ -6679,7 +6704,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T28" s="82" t="str">
+      <c r="T28" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6687,7 +6712,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V28" s="82" t="str">
+      <c r="V28" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6695,7 +6720,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X28" s="82" t="str">
+      <c r="X28" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6703,7 +6728,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z28" s="82" t="str">
+      <c r="Z28" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6711,23 +6736,26 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB28" s="82">
+      <c r="AB28" s="45">
         <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
         <v>0.6</v>
       </c>
-      <c r="AC28" s="83" t="str">
+      <c r="AC28" s="46" t="str">
         <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -6741,15 +6769,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6779,103 +6804,103 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="87" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="59" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="63" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="63" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="63" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="90"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="91"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="28" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="28" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="28" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="28" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="28" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="28" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="28" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="40" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="92" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -6887,8 +6912,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -6898,9 +6923,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6943,11 +6968,11 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="93"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="70"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -6974,10 +6999,10 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="71"/>
+      <c r="AC5" s="38"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="52"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -7004,10 +7029,10 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="11"/>
-      <c r="AC6" s="72"/>
+      <c r="AC6" s="39"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="52"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -7034,10 +7059,10 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="11"/>
-      <c r="AC7" s="72"/>
+      <c r="AC7" s="39"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="52"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -7064,10 +7089,10 @@
       <c r="Z8" s="11"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="11"/>
-      <c r="AC8" s="72"/>
+      <c r="AC8" s="39"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="52"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -7094,10 +7119,10 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="11"/>
-      <c r="AC9" s="72"/>
+      <c r="AC9" s="39"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="52"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -7124,10 +7149,10 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="11"/>
-      <c r="AC10" s="72"/>
+      <c r="AC10" s="39"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="52"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -7154,10 +7179,10 @@
       <c r="Z11" s="11"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="11"/>
-      <c r="AC11" s="72"/>
+      <c r="AC11" s="39"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="52"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -7184,10 +7209,10 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="72"/>
+      <c r="AC12" s="39"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -7214,10 +7239,10 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="11"/>
-      <c r="AC13" s="72"/>
+      <c r="AC13" s="39"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="52"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -7244,10 +7269,10 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="72"/>
+      <c r="AC14" s="39"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="52"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -7274,10 +7299,10 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="11"/>
-      <c r="AC15" s="72"/>
+      <c r="AC15" s="39"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="52"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -7304,10 +7329,10 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="11"/>
-      <c r="AC16" s="72"/>
+      <c r="AC16" s="39"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B17" s="52"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -7334,10 +7359,10 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="11"/>
-      <c r="AC17" s="72"/>
+      <c r="AC17" s="39"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B18" s="52"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -7364,10 +7389,10 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="72"/>
+      <c r="AC18" s="39"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B19" s="52"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -7394,10 +7419,10 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="72"/>
+      <c r="AC19" s="39"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B20" s="52"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -7424,10 +7449,10 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="72"/>
+      <c r="AC20" s="39"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="52"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -7454,10 +7479,10 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="72"/>
+      <c r="AC21" s="39"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B22" s="52"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -7484,10 +7509,10 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="72"/>
+      <c r="AC22" s="39"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B23" s="73"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -7514,10 +7539,10 @@
       <c r="Z23" s="16"/>
       <c r="AA23" s="17"/>
       <c r="AB23" s="16"/>
-      <c r="AC23" s="74"/>
+      <c r="AC23" s="41"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B24" s="52"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -7544,10 +7569,10 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="72"/>
+      <c r="AC24" s="39"/>
     </row>
     <row r="25" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="54"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -7574,25 +7599,25 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="75"/>
+      <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7665,28 +7690,28 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC26" s="77" t="str">
+      <c r="AC26" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>35.199999999999996</v>
-      </c>
-      <c r="H27" s="32" t="s">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -7709,7 +7734,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>33.599999999999994</v>
+        <v>34.699999999999996</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -7759,41 +7784,41 @@
         <f>'Page 04'!AB28</f>
         <v>0.6</v>
       </c>
-      <c r="AC27" s="79" t="str">
+      <c r="AC27" s="44" t="str">
         <f>'Page 04'!AC28</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="82">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>35.199999999999996</v>
-      </c>
-      <c r="H28" s="81" t="s">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="82" t="str">
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
       </c>
-      <c r="L28" s="82" t="str">
+      <c r="L28" s="45" t="str">
         <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
         <v/>
       </c>
-      <c r="M28" s="82" t="str">
+      <c r="M28" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="82" t="str">
+      <c r="N28" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7801,15 +7826,15 @@
         <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
         <v/>
       </c>
-      <c r="P28" s="82">
+      <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>33.599999999999994</v>
+        <v>34.699999999999996</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R28" s="82">
+      <c r="R28" s="45">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
@@ -7817,7 +7842,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T28" s="82" t="str">
+      <c r="T28" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7825,7 +7850,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V28" s="82" t="str">
+      <c r="V28" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7833,7 +7858,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X28" s="82" t="str">
+      <c r="X28" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7841,7 +7866,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z28" s="82" t="str">
+      <c r="Z28" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7849,45 +7874,45 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB28" s="82">
+      <c r="AB28" s="45">
         <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
         <v>0.6</v>
       </c>
-      <c r="AC28" s="83" t="str">
+      <c r="AC28" s="46" t="str">
         <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="H28:J28"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/log/My_Flying_Logbook.xlsx
+++ b/log/My_Flying_Logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE44405-3BEB-3C47-A715-C9F3FD958B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A428F5DD-11A1-3E49-9FC6-49CC04F04272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Theorem Exam Pass Record" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="85">
   <si>
     <t>Month</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>February</t>
+  </si>
+  <si>
+    <t>PA-29</t>
+  </si>
+  <si>
+    <t>Circuits Solo Flight</t>
   </si>
 </sst>
 </file>
@@ -1025,6 +1031,63 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1046,61 +1109,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,45 +1170,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1441,7 +1447,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1624,98 +1630,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="59" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59" t="s">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="59" t="s">
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="62"/>
+      <c r="AC2" s="66"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="56" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56" t="s">
+      <c r="W3" s="60"/>
+      <c r="X3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56" t="s">
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56" t="s">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AC3" s="61" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1732,8 +1738,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1743,9 +1749,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1788,8 +1794,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="58"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="62"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2806,22 +2812,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2900,22 +2906,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2937,22 +2943,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3032,15 +3038,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3054,12 +3057,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3074,9 +3080,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:F26"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3095,98 +3099,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3203,8 +3207,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3214,9 +3218,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3259,8 +3263,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4063,22 +4067,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4157,22 +4161,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4251,22 +4255,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4346,15 +4350,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4368,12 +4369,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4389,9 +4393,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4410,98 +4412,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4518,8 +4520,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4529,9 +4531,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4574,8 +4576,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4873,20 +4875,38 @@
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B11" s="32"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="C11" s="13">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="11"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="11"/>
+      <c r="P11" s="11">
+        <v>0.4</v>
+      </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="11"/>
       <c r="S11" s="6"/>
@@ -4903,14 +4923,30 @@
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="C12" s="13">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -4918,7 +4954,9 @@
       <c r="O12" s="6"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="11"/>
+      <c r="R12" s="11">
+        <v>0.6</v>
+      </c>
       <c r="S12" s="6"/>
       <c r="T12" s="11"/>
       <c r="U12" s="6"/>
@@ -5322,22 +5360,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>6</v>
-      </c>
-      <c r="H26" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5360,15 +5398,15 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
         <v/>
       </c>
-      <c r="R26" s="18" t="str">
+      <c r="R26" s="18">
         <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
-        <v/>
+        <v>0.6</v>
       </c>
       <c r="S26" s="5" t="str">
         <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
@@ -5416,22 +5454,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>36.299999999999997</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5510,22 +5548,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>36.299999999999997</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5548,7 +5586,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>34.699999999999996</v>
+        <v>35.099999999999994</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5556,7 +5594,7 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5605,15 +5643,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5627,12 +5662,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5666,98 +5704,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5774,8 +5812,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -5785,9 +5823,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -5830,8 +5868,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -6464,22 +6502,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6558,22 +6596,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>36.299999999999997</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -6596,7 +6634,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 03'!P28</f>
-        <v>34.699999999999996</v>
+        <v>35.099999999999994</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 03'!Q28</f>
@@ -6604,7 +6642,7 @@
       </c>
       <c r="R27" s="19">
         <f>'Page 03'!R28</f>
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S27" s="6" t="str">
         <f>'Page 03'!S28</f>
@@ -6652,22 +6690,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>36.299999999999997</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -6690,7 +6728,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>34.699999999999996</v>
+        <v>35.099999999999994</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6698,7 +6736,7 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6747,15 +6785,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -6769,12 +6804,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6804,98 +6842,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6912,8 +6950,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -6923,9 +6961,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6968,8 +7006,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -7602,22 +7640,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7696,22 +7734,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>36.299999999999997</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -7734,7 +7772,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>34.699999999999996</v>
+        <v>35.099999999999994</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -7742,7 +7780,7 @@
       </c>
       <c r="R27" s="19">
         <f>'Page 04'!R28</f>
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S27" s="6" t="str">
         <f>'Page 04'!S28</f>
@@ -7790,22 +7828,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>36.299999999999997</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7828,7 +7866,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>34.699999999999996</v>
+        <v>35.099999999999994</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7836,7 +7874,7 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7885,15 +7923,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7907,12 +7942,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/log/My_Flying_Logbook.xlsx
+++ b/log/My_Flying_Logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A428F5DD-11A1-3E49-9FC6-49CC04F04272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB0EB29-DDFE-BB43-A90E-2242A9DA0C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Theorem Exam Pass Record" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="85">
   <si>
     <t>Month</t>
   </si>
@@ -329,10 +329,10 @@
     <t>February</t>
   </si>
   <si>
-    <t>PA-29</t>
-  </si>
-  <si>
     <t>Circuits Solo Flight</t>
+  </si>
+  <si>
+    <t>Pre-area Solo Check</t>
   </si>
 </sst>
 </file>
@@ -1031,6 +1031,51 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1064,50 +1109,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1146,30 +1170,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1447,7 +1447,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1630,98 +1630,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="63" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="63" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="66"/>
+      <c r="AC2" s="62"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="60" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60" t="s">
+      <c r="S3" s="56"/>
+      <c r="T3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60" t="s">
+      <c r="W3" s="56"/>
+      <c r="X3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60" t="s">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60" t="s">
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="61" t="s">
+      <c r="AC3" s="57" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1738,8 +1738,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1749,9 +1749,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1794,8 +1794,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="62"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="58"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2812,22 +2812,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2906,22 +2906,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2943,22 +2943,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3038,12 +3038,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3057,15 +3060,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3099,98 +3099,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3207,8 +3207,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3218,9 +3218,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3263,8 +3263,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4067,22 +4067,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4161,22 +4161,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4255,22 +4255,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4350,12 +4350,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4369,15 +4372,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4393,7 +4393,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4412,98 +4412,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4520,8 +4520,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4531,9 +4531,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4576,8 +4576,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4927,7 +4927,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>23</v>
@@ -4939,7 +4939,7 @@
         <v>52</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>29</v>
@@ -4971,20 +4971,38 @@
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B13" s="32"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="C13" s="13">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="11"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="11"/>
+      <c r="P13" s="11">
+        <v>1.2</v>
+      </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="11"/>
       <c r="S13" s="6"/>
@@ -5360,22 +5378,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>7</v>
-      </c>
-      <c r="H26" s="69" t="s">
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5398,7 +5416,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>6.4</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -5454,22 +5472,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>37.299999999999997</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>38.5</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5548,22 +5566,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>37.299999999999997</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>38.5</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5586,7 +5604,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>35.099999999999994</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5643,12 +5661,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5662,15 +5683,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5704,98 +5722,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5812,8 +5830,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -5823,9 +5841,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -5868,8 +5886,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -6502,22 +6520,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6596,22 +6614,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>37.299999999999997</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>38.5</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -6634,7 +6652,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 03'!P28</f>
-        <v>35.099999999999994</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 03'!Q28</f>
@@ -6690,22 +6708,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>37.299999999999997</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>38.5</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -6728,7 +6746,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>35.099999999999994</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6785,12 +6803,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -6804,15 +6825,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6842,98 +6860,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6950,8 +6968,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -6961,9 +6979,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7006,8 +7024,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -7640,22 +7658,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7734,22 +7752,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>37.299999999999997</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>38.5</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -7772,7 +7790,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>35.099999999999994</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -7828,22 +7846,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>37.299999999999997</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>38.5</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7866,7 +7884,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>35.099999999999994</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7923,12 +7941,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7942,15 +7963,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/log/My_Flying_Logbook.xlsx
+++ b/log/My_Flying_Logbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB0EB29-DDFE-BB43-A90E-2242A9DA0C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC552791-FE8B-DD49-AA75-3C69E3A77128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="85">
   <si>
     <t>Month</t>
   </si>
@@ -1031,6 +1031,63 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1052,61 +1109,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1131,45 +1170,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1630,98 +1630,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="59" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59" t="s">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="59" t="s">
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="62"/>
+      <c r="AC2" s="66"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="56" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56" t="s">
+      <c r="W3" s="60"/>
+      <c r="X3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56" t="s">
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56" t="s">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AC3" s="61" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1738,8 +1738,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1749,9 +1749,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1794,8 +1794,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="58"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="62"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2812,22 +2812,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2906,22 +2906,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2943,22 +2943,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3038,15 +3038,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3060,12 +3057,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3099,98 +3099,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3207,8 +3207,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3218,9 +3218,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3263,8 +3263,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4067,22 +4067,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4161,22 +4161,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4255,22 +4255,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4350,15 +4350,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4372,12 +4369,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4412,98 +4412,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4520,8 +4520,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4531,9 +4531,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4576,8 +4576,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5018,21 +5018,41 @@
       <c r="AC13" s="39"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="32"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="B14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="13">
+        <v>11</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="11"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="11"/>
+      <c r="P14" s="11">
+        <v>0.6</v>
+      </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="11"/>
       <c r="S14" s="6"/>
@@ -5378,22 +5398,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>8.2000000000000011</v>
-      </c>
-      <c r="H26" s="50" t="s">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5416,7 +5436,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>7.6000000000000005</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -5472,22 +5492,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>38.5</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>39.1</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5566,22 +5586,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>38.5</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>39.1</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5604,7 +5624,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>36.299999999999997</v>
+        <v>36.9</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5661,15 +5681,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5683,12 +5700,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5722,98 +5742,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5830,8 +5850,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -5841,9 +5861,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -5886,8 +5906,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -6520,22 +6540,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6614,22 +6634,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>38.5</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>39.1</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -6652,7 +6672,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 03'!P28</f>
-        <v>36.299999999999997</v>
+        <v>36.9</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 03'!Q28</f>
@@ -6708,22 +6728,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>38.5</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>39.1</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -6746,7 +6766,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>36.299999999999997</v>
+        <v>36.9</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6803,15 +6823,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -6825,12 +6842,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6860,98 +6880,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6968,8 +6988,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -6979,9 +6999,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7024,8 +7044,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -7658,22 +7678,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7752,22 +7772,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>38.5</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>39.1</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -7790,7 +7810,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>36.299999999999997</v>
+        <v>36.9</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -7846,22 +7866,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>38.5</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>39.1</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7884,7 +7904,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>36.299999999999997</v>
+        <v>36.9</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7941,15 +7961,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7963,12 +7980,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
